--- a/output/wdi_incomegroup.xlsx
+++ b/output/wdi_incomegroup.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,6 +373,76 @@
           <t>GE.EST</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GE.LOWER</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GE.UPPER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RL.EST</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RL.LOWER</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RL.UPPER</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RQ.EST</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>RQ.LOWER</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RQ.UPPER</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>CC.EST</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CC.LOWER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CC.UPPER</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ALL.EST</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ALL.LOWER</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ALL.UPPER</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -386,6 +456,48 @@
       <c r="C2">
         <v>1.371301297435897</v>
       </c>
+      <c r="D2">
+        <v>1.285118274358974</v>
+      </c>
+      <c r="E2">
+        <v>1.457484320512821</v>
+      </c>
+      <c r="F2">
+        <v>1.309983253846154</v>
+      </c>
+      <c r="G2">
+        <v>1.19231737948718</v>
+      </c>
+      <c r="H2">
+        <v>1.427649128205128</v>
+      </c>
+      <c r="I2">
+        <v>1.264017761538462</v>
+      </c>
+      <c r="J2">
+        <v>1.113757064102564</v>
+      </c>
+      <c r="K2">
+        <v>1.414278458974359</v>
+      </c>
+      <c r="L2">
+        <v>1.369901269230769</v>
+      </c>
+      <c r="M2">
+        <v>1.238872583333333</v>
+      </c>
+      <c r="N2">
+        <v>1.500929955128205</v>
+      </c>
+      <c r="O2">
+        <v>1.328800895512821</v>
+      </c>
+      <c r="P2">
+        <v>1.207516325320513</v>
+      </c>
+      <c r="Q2">
+        <v>1.450085465705128</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -399,6 +511,48 @@
       <c r="C3">
         <v>1.4480373425</v>
       </c>
+      <c r="D3">
+        <v>1.33264964875</v>
+      </c>
+      <c r="E3">
+        <v>1.56342503625</v>
+      </c>
+      <c r="F3">
+        <v>1.349643665</v>
+      </c>
+      <c r="G3">
+        <v>1.23079036375</v>
+      </c>
+      <c r="H3">
+        <v>1.46849696625</v>
+      </c>
+      <c r="I3">
+        <v>1.266335025</v>
+      </c>
+      <c r="J3">
+        <v>1.1079926525</v>
+      </c>
+      <c r="K3">
+        <v>1.4246773975</v>
+      </c>
+      <c r="L3">
+        <v>1.4320558425</v>
+      </c>
+      <c r="M3">
+        <v>1.30719512</v>
+      </c>
+      <c r="N3">
+        <v>1.556916565</v>
+      </c>
+      <c r="O3">
+        <v>1.37401796875</v>
+      </c>
+      <c r="P3">
+        <v>1.24465694625</v>
+      </c>
+      <c r="Q3">
+        <v>1.50337899125</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -412,6 +566,48 @@
       <c r="C4">
         <v>1.453087141463415</v>
       </c>
+      <c r="D4">
+        <v>1.3331383</v>
+      </c>
+      <c r="E4">
+        <v>1.573035982926829</v>
+      </c>
+      <c r="F4">
+        <v>1.350320609756098</v>
+      </c>
+      <c r="G4">
+        <v>1.251177917073171</v>
+      </c>
+      <c r="H4">
+        <v>1.449463302439024</v>
+      </c>
+      <c r="I4">
+        <v>1.305587526829268</v>
+      </c>
+      <c r="J4">
+        <v>1.163548479268293</v>
+      </c>
+      <c r="K4">
+        <v>1.447626574390244</v>
+      </c>
+      <c r="L4">
+        <v>1.461889217073171</v>
+      </c>
+      <c r="M4">
+        <v>1.330783317073171</v>
+      </c>
+      <c r="N4">
+        <v>1.592995117073171</v>
+      </c>
+      <c r="O4">
+        <v>1.392721123780488</v>
+      </c>
+      <c r="P4">
+        <v>1.269662003353659</v>
+      </c>
+      <c r="Q4">
+        <v>1.515780244207317</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -425,6 +621,48 @@
       <c r="C5">
         <v>1.414732271111111</v>
       </c>
+      <c r="D5">
+        <v>1.306146903333334</v>
+      </c>
+      <c r="E5">
+        <v>1.523317638888889</v>
+      </c>
+      <c r="F5">
+        <v>1.334170391111111</v>
+      </c>
+      <c r="G5">
+        <v>1.22110211</v>
+      </c>
+      <c r="H5">
+        <v>1.447238672222222</v>
+      </c>
+      <c r="I5">
+        <v>1.307230491111111</v>
+      </c>
+      <c r="J5">
+        <v>1.177355407777778</v>
+      </c>
+      <c r="K5">
+        <v>1.437105574444445</v>
+      </c>
+      <c r="L5">
+        <v>1.427443806666667</v>
+      </c>
+      <c r="M5">
+        <v>1.307104708888889</v>
+      </c>
+      <c r="N5">
+        <v>1.547782904444444</v>
+      </c>
+      <c r="O5">
+        <v>1.37089424</v>
+      </c>
+      <c r="P5">
+        <v>1.2529272825</v>
+      </c>
+      <c r="Q5">
+        <v>1.4888611975</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -438,6 +676,48 @@
       <c r="C6">
         <v>1.432725286046512</v>
       </c>
+      <c r="D6">
+        <v>1.317214874418605</v>
+      </c>
+      <c r="E6">
+        <v>1.548235697674419</v>
+      </c>
+      <c r="F6">
+        <v>1.345035851162791</v>
+      </c>
+      <c r="G6">
+        <v>1.236942270930233</v>
+      </c>
+      <c r="H6">
+        <v>1.453129431395349</v>
+      </c>
+      <c r="I6">
+        <v>1.329509230232558</v>
+      </c>
+      <c r="J6">
+        <v>1.223767245348837</v>
+      </c>
+      <c r="K6">
+        <v>1.435251215116279</v>
+      </c>
+      <c r="L6">
+        <v>1.442436320930233</v>
+      </c>
+      <c r="M6">
+        <v>1.32772223372093</v>
+      </c>
+      <c r="N6">
+        <v>1.557150408139535</v>
+      </c>
+      <c r="O6">
+        <v>1.387426672093023</v>
+      </c>
+      <c r="P6">
+        <v>1.276411656104651</v>
+      </c>
+      <c r="Q6">
+        <v>1.498441688081395</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -451,6 +731,48 @@
       <c r="C7">
         <v>1.347073155319149</v>
       </c>
+      <c r="D7">
+        <v>1.219293486170213</v>
+      </c>
+      <c r="E7">
+        <v>1.474852824468085</v>
+      </c>
+      <c r="F7">
+        <v>1.26793795106383</v>
+      </c>
+      <c r="G7">
+        <v>1.159735034042553</v>
+      </c>
+      <c r="H7">
+        <v>1.376140868085106</v>
+      </c>
+      <c r="I7">
+        <v>1.281372544680851</v>
+      </c>
+      <c r="J7">
+        <v>1.163454528723404</v>
+      </c>
+      <c r="K7">
+        <v>1.399290560638298</v>
+      </c>
+      <c r="L7">
+        <v>1.340476806382979</v>
+      </c>
+      <c r="M7">
+        <v>1.226492367021277</v>
+      </c>
+      <c r="N7">
+        <v>1.454461245744681</v>
+      </c>
+      <c r="O7">
+        <v>1.309215114361702</v>
+      </c>
+      <c r="P7">
+        <v>1.192243853989362</v>
+      </c>
+      <c r="Q7">
+        <v>1.426186374734043</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -464,6 +786,48 @@
       <c r="C8">
         <v>1.270667466666667</v>
       </c>
+      <c r="D8">
+        <v>1.160495396875</v>
+      </c>
+      <c r="E8">
+        <v>1.380839536458333</v>
+      </c>
+      <c r="F8">
+        <v>1.20884445</v>
+      </c>
+      <c r="G8">
+        <v>1.099538882291667</v>
+      </c>
+      <c r="H8">
+        <v>1.318150017708333</v>
+      </c>
+      <c r="I8">
+        <v>1.215659247916667</v>
+      </c>
+      <c r="J8">
+        <v>1.12479979375</v>
+      </c>
+      <c r="K8">
+        <v>1.306518702083333</v>
+      </c>
+      <c r="L8">
+        <v>1.2926081375</v>
+      </c>
+      <c r="M8">
+        <v>1.187510825</v>
+      </c>
+      <c r="N8">
+        <v>1.39770545</v>
+      </c>
+      <c r="O8">
+        <v>1.246944825520833</v>
+      </c>
+      <c r="P8">
+        <v>1.143086224479167</v>
+      </c>
+      <c r="Q8">
+        <v>1.3508034265625</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -477,6 +841,48 @@
       <c r="C9">
         <v>1.2662862</v>
       </c>
+      <c r="D9">
+        <v>1.141555202884615</v>
+      </c>
+      <c r="E9">
+        <v>1.391017197115385</v>
+      </c>
+      <c r="F9">
+        <v>1.169659813461538</v>
+      </c>
+      <c r="G9">
+        <v>1.061696104807692</v>
+      </c>
+      <c r="H9">
+        <v>1.277623522115385</v>
+      </c>
+      <c r="I9">
+        <v>1.180686842307692</v>
+      </c>
+      <c r="J9">
+        <v>1.065961045192308</v>
+      </c>
+      <c r="K9">
+        <v>1.295412639423077</v>
+      </c>
+      <c r="L9">
+        <v>1.246470836538462</v>
+      </c>
+      <c r="M9">
+        <v>1.136135826923077</v>
+      </c>
+      <c r="N9">
+        <v>1.356805846153846</v>
+      </c>
+      <c r="O9">
+        <v>1.215775923076923</v>
+      </c>
+      <c r="P9">
+        <v>1.101337044951923</v>
+      </c>
+      <c r="Q9">
+        <v>1.330214801201923</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -490,6 +896,48 @@
       <c r="C10">
         <v>1.166313925</v>
       </c>
+      <c r="D10">
+        <v>1.03218910625</v>
+      </c>
+      <c r="E10">
+        <v>1.30043874375</v>
+      </c>
+      <c r="F10">
+        <v>1.127142323214286</v>
+      </c>
+      <c r="G10">
+        <v>1.023406866071429</v>
+      </c>
+      <c r="H10">
+        <v>1.230877780357143</v>
+      </c>
+      <c r="I10">
+        <v>1.148092832142857</v>
+      </c>
+      <c r="J10">
+        <v>1.024371503571429</v>
+      </c>
+      <c r="K10">
+        <v>1.271814160714286</v>
+      </c>
+      <c r="L10">
+        <v>1.151532219642857</v>
+      </c>
+      <c r="M10">
+        <v>1.041255692857143</v>
+      </c>
+      <c r="N10">
+        <v>1.261808746428571</v>
+      </c>
+      <c r="O10">
+        <v>1.148270325</v>
+      </c>
+      <c r="P10">
+        <v>1.0303057921875</v>
+      </c>
+      <c r="Q10">
+        <v>1.2662348578125</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -503,6 +951,48 @@
       <c r="C11">
         <v>1.174115856140351</v>
       </c>
+      <c r="D11">
+        <v>1.038424831578947</v>
+      </c>
+      <c r="E11">
+        <v>1.309806880701754</v>
+      </c>
+      <c r="F11">
+        <v>1.120988585964912</v>
+      </c>
+      <c r="G11">
+        <v>1.022574349122807</v>
+      </c>
+      <c r="H11">
+        <v>1.219402822807018</v>
+      </c>
+      <c r="I11">
+        <v>1.141260915789474</v>
+      </c>
+      <c r="J11">
+        <v>1.014660328947368</v>
+      </c>
+      <c r="K11">
+        <v>1.267861502631579</v>
+      </c>
+      <c r="L11">
+        <v>1.13817662631579</v>
+      </c>
+      <c r="M11">
+        <v>1.031765327192983</v>
+      </c>
+      <c r="N11">
+        <v>1.244587925438597</v>
+      </c>
+      <c r="O11">
+        <v>1.143635496052632</v>
+      </c>
+      <c r="P11">
+        <v>1.026856209210526</v>
+      </c>
+      <c r="Q11">
+        <v>1.260414782894737</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -516,6 +1006,48 @@
       <c r="C12">
         <v>1.161374501694915</v>
       </c>
+      <c r="D12">
+        <v>1.038227458474576</v>
+      </c>
+      <c r="E12">
+        <v>1.284521544915254</v>
+      </c>
+      <c r="F12">
+        <v>1.12404636779661</v>
+      </c>
+      <c r="G12">
+        <v>1.034372489830508</v>
+      </c>
+      <c r="H12">
+        <v>1.213720245762712</v>
+      </c>
+      <c r="I12">
+        <v>1.134692949152542</v>
+      </c>
+      <c r="J12">
+        <v>1.013895047457627</v>
+      </c>
+      <c r="K12">
+        <v>1.255490850847458</v>
+      </c>
+      <c r="L12">
+        <v>1.113011872881356</v>
+      </c>
+      <c r="M12">
+        <v>1.013708850847458</v>
+      </c>
+      <c r="N12">
+        <v>1.212314894915254</v>
+      </c>
+      <c r="O12">
+        <v>1.133281422881356</v>
+      </c>
+      <c r="P12">
+        <v>1.025050961652542</v>
+      </c>
+      <c r="Q12">
+        <v>1.24151188411017</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -529,6 +1061,48 @@
       <c r="C13">
         <v>1.164457665517241</v>
       </c>
+      <c r="D13">
+        <v>1.0375968</v>
+      </c>
+      <c r="E13">
+        <v>1.291318531034483</v>
+      </c>
+      <c r="F13">
+        <v>1.13779455</v>
+      </c>
+      <c r="G13">
+        <v>1.04734273362069</v>
+      </c>
+      <c r="H13">
+        <v>1.22824636637931</v>
+      </c>
+      <c r="I13">
+        <v>1.1232214</v>
+      </c>
+      <c r="J13">
+        <v>0.9957140474137931</v>
+      </c>
+      <c r="K13">
+        <v>1.250728752586207</v>
+      </c>
+      <c r="L13">
+        <v>1.127568856896552</v>
+      </c>
+      <c r="M13">
+        <v>1.029384387931035</v>
+      </c>
+      <c r="N13">
+        <v>1.225753325862069</v>
+      </c>
+      <c r="O13">
+        <v>1.138260618103448</v>
+      </c>
+      <c r="P13">
+        <v>1.027509492241379</v>
+      </c>
+      <c r="Q13">
+        <v>1.249011743965517</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -542,6 +1116,48 @@
       <c r="C14">
         <v>1.139884027118644</v>
       </c>
+      <c r="D14">
+        <v>1.014609363559322</v>
+      </c>
+      <c r="E14">
+        <v>1.265158690677966</v>
+      </c>
+      <c r="F14">
+        <v>1.123074216949153</v>
+      </c>
+      <c r="G14">
+        <v>1.036487781355932</v>
+      </c>
+      <c r="H14">
+        <v>1.209660652542373</v>
+      </c>
+      <c r="I14">
+        <v>1.105770944067797</v>
+      </c>
+      <c r="J14">
+        <v>0.9808199584745763</v>
+      </c>
+      <c r="K14">
+        <v>1.230721929661017</v>
+      </c>
+      <c r="L14">
+        <v>1.115244816949153</v>
+      </c>
+      <c r="M14">
+        <v>1.017002053389831</v>
+      </c>
+      <c r="N14">
+        <v>1.213487580508475</v>
+      </c>
+      <c r="O14">
+        <v>1.120993501271187</v>
+      </c>
+      <c r="P14">
+        <v>1.012229789194915</v>
+      </c>
+      <c r="Q14">
+        <v>1.229757213347458</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -555,6 +1171,48 @@
       <c r="C15">
         <v>1.0992807515625</v>
       </c>
+      <c r="D15">
+        <v>0.977561075</v>
+      </c>
+      <c r="E15">
+        <v>1.221000428125</v>
+      </c>
+      <c r="F15">
+        <v>1.082205390625</v>
+      </c>
+      <c r="G15">
+        <v>0.99328401640625</v>
+      </c>
+      <c r="H15">
+        <v>1.17112676484375</v>
+      </c>
+      <c r="I15">
+        <v>1.0659424984375</v>
+      </c>
+      <c r="J15">
+        <v>0.93779829765625</v>
+      </c>
+      <c r="K15">
+        <v>1.19408669921875</v>
+      </c>
+      <c r="L15">
+        <v>1.0809024265625</v>
+      </c>
+      <c r="M15">
+        <v>0.98542786640625</v>
+      </c>
+      <c r="N15">
+        <v>1.17637698671875</v>
+      </c>
+      <c r="O15">
+        <v>1.082082766796875</v>
+      </c>
+      <c r="P15">
+        <v>0.9735178138671875</v>
+      </c>
+      <c r="Q15">
+        <v>1.190647719726563</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -568,6 +1226,48 @@
       <c r="C16">
         <v>1.0994725640625</v>
       </c>
+      <c r="D16">
+        <v>0.9815856296875</v>
+      </c>
+      <c r="E16">
+        <v>1.2173594984375</v>
+      </c>
+      <c r="F16">
+        <v>1.0749132265625</v>
+      </c>
+      <c r="G16">
+        <v>0.98594639609375</v>
+      </c>
+      <c r="H16">
+        <v>1.16388005703125</v>
+      </c>
+      <c r="I16">
+        <v>1.067380271875</v>
+      </c>
+      <c r="J16">
+        <v>0.9408316484375</v>
+      </c>
+      <c r="K16">
+        <v>1.1939288953125</v>
+      </c>
+      <c r="L16">
+        <v>1.081013990625</v>
+      </c>
+      <c r="M16">
+        <v>0.9852937140625</v>
+      </c>
+      <c r="N16">
+        <v>1.1767342671875</v>
+      </c>
+      <c r="O16">
+        <v>1.08069501328125</v>
+      </c>
+      <c r="P16">
+        <v>0.9734143470703125</v>
+      </c>
+      <c r="Q16">
+        <v>1.187975679492187</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -581,6 +1281,48 @@
       <c r="C17">
         <v>1.020655542647059</v>
       </c>
+      <c r="D17">
+        <v>0.8931534161764706</v>
+      </c>
+      <c r="E17">
+        <v>1.148157669117647</v>
+      </c>
+      <c r="F17">
+        <v>0.9805845161764706</v>
+      </c>
+      <c r="G17">
+        <v>0.8807094580882353</v>
+      </c>
+      <c r="H17">
+        <v>1.080459574264706</v>
+      </c>
+      <c r="I17">
+        <v>0.9451130544117647</v>
+      </c>
+      <c r="J17">
+        <v>0.8172641580882353</v>
+      </c>
+      <c r="K17">
+        <v>1.072961950735294</v>
+      </c>
+      <c r="L17">
+        <v>0.9562261338235294</v>
+      </c>
+      <c r="M17">
+        <v>0.8646395382352942</v>
+      </c>
+      <c r="N17">
+        <v>1.047812729411765</v>
+      </c>
+      <c r="O17">
+        <v>0.9756448117647059</v>
+      </c>
+      <c r="P17">
+        <v>0.8639416426470589</v>
+      </c>
+      <c r="Q17">
+        <v>1.087347980882353</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -594,6 +1336,48 @@
       <c r="C18">
         <v>1.111422766153846</v>
       </c>
+      <c r="D18">
+        <v>0.9795153730769231</v>
+      </c>
+      <c r="E18">
+        <v>1.243330159230769</v>
+      </c>
+      <c r="F18">
+        <v>1.102969629230769</v>
+      </c>
+      <c r="G18">
+        <v>1.000664042307692</v>
+      </c>
+      <c r="H18">
+        <v>1.205275216153846</v>
+      </c>
+      <c r="I18">
+        <v>1.058157783076923</v>
+      </c>
+      <c r="J18">
+        <v>0.9323745392307692</v>
+      </c>
+      <c r="K18">
+        <v>1.183941026923077</v>
+      </c>
+      <c r="L18">
+        <v>1.07299666</v>
+      </c>
+      <c r="M18">
+        <v>0.9785691023076923</v>
+      </c>
+      <c r="N18">
+        <v>1.167424217692308</v>
+      </c>
+      <c r="O18">
+        <v>1.086386709615385</v>
+      </c>
+      <c r="P18">
+        <v>0.9727807642307692</v>
+      </c>
+      <c r="Q18">
+        <v>1.199992655</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -607,6 +1391,48 @@
       <c r="C19">
         <v>1.1045263671875</v>
       </c>
+      <c r="D19">
+        <v>0.976202034375</v>
+      </c>
+      <c r="E19">
+        <v>1.2328507</v>
+      </c>
+      <c r="F19">
+        <v>1.095478309375</v>
+      </c>
+      <c r="G19">
+        <v>0.98726335</v>
+      </c>
+      <c r="H19">
+        <v>1.20369326875</v>
+      </c>
+      <c r="I19">
+        <v>1.0832688390625</v>
+      </c>
+      <c r="J19">
+        <v>0.9487837515625001</v>
+      </c>
+      <c r="K19">
+        <v>1.2177539265625</v>
+      </c>
+      <c r="L19">
+        <v>1.0790114921875</v>
+      </c>
+      <c r="M19">
+        <v>0.9798970078125</v>
+      </c>
+      <c r="N19">
+        <v>1.1781259765625</v>
+      </c>
+      <c r="O19">
+        <v>1.090571251953125</v>
+      </c>
+      <c r="P19">
+        <v>0.9730365359375001</v>
+      </c>
+      <c r="Q19">
+        <v>1.20810596796875</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -620,6 +1446,48 @@
       <c r="C20">
         <v>1.046852167164179</v>
       </c>
+      <c r="D20">
+        <v>0.9168572029850747</v>
+      </c>
+      <c r="E20">
+        <v>1.176847131343284</v>
+      </c>
+      <c r="F20">
+        <v>1.046069395522388</v>
+      </c>
+      <c r="G20">
+        <v>0.9457511074626865</v>
+      </c>
+      <c r="H20">
+        <v>1.14638768358209</v>
+      </c>
+      <c r="I20">
+        <v>1.037248858208955</v>
+      </c>
+      <c r="J20">
+        <v>0.9088244052238806</v>
+      </c>
+      <c r="K20">
+        <v>1.16567331119403</v>
+      </c>
+      <c r="L20">
+        <v>0.994691847761194</v>
+      </c>
+      <c r="M20">
+        <v>0.9046286089552239</v>
+      </c>
+      <c r="N20">
+        <v>1.084755086567164</v>
+      </c>
+      <c r="O20">
+        <v>1.031215567164179</v>
+      </c>
+      <c r="P20">
+        <v>0.9190153311567164</v>
+      </c>
+      <c r="Q20">
+        <v>1.143415803171642</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -633,6 +1501,48 @@
       <c r="C21">
         <v>1.057382916666667</v>
       </c>
+      <c r="D21">
+        <v>0.9250248212121213</v>
+      </c>
+      <c r="E21">
+        <v>1.189741012121212</v>
+      </c>
+      <c r="F21">
+        <v>1.062508171212121</v>
+      </c>
+      <c r="G21">
+        <v>0.964358706060606</v>
+      </c>
+      <c r="H21">
+        <v>1.160657636363636</v>
+      </c>
+      <c r="I21">
+        <v>1.061888137878788</v>
+      </c>
+      <c r="J21">
+        <v>0.9293155651515151</v>
+      </c>
+      <c r="K21">
+        <v>1.194460710606061</v>
+      </c>
+      <c r="L21">
+        <v>1.008904031818182</v>
+      </c>
+      <c r="M21">
+        <v>0.9148351151515152</v>
+      </c>
+      <c r="N21">
+        <v>1.102972948484849</v>
+      </c>
+      <c r="O21">
+        <v>1.04767081439394</v>
+      </c>
+      <c r="P21">
+        <v>0.9333835518939394</v>
+      </c>
+      <c r="Q21">
+        <v>1.16195807689394</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -646,18 +1556,102 @@
       <c r="C22">
         <v>1.018199288405797</v>
       </c>
+      <c r="D22">
+        <v>0.8790859050724638</v>
+      </c>
+      <c r="E22">
+        <v>1.15731267173913</v>
+      </c>
+      <c r="F22">
+        <v>1.02000168115942</v>
+      </c>
+      <c r="G22">
+        <v>0.9158804963768116</v>
+      </c>
+      <c r="H22">
+        <v>1.124122865942029</v>
+      </c>
+      <c r="I22">
+        <v>1.04059014057971</v>
+      </c>
+      <c r="J22">
+        <v>0.9039810884057971</v>
+      </c>
+      <c r="K22">
+        <v>1.177199192753623</v>
+      </c>
+      <c r="L22">
+        <v>0.9633376739130435</v>
+      </c>
+      <c r="M22">
+        <v>0.8594870173913044</v>
+      </c>
+      <c r="N22">
+        <v>1.067188330434783</v>
+      </c>
+      <c r="O22">
+        <v>1.010532196014493</v>
+      </c>
+      <c r="P22">
+        <v>0.8896086268115943</v>
+      </c>
+      <c r="Q22">
+        <v>1.131455765217391</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lavinntektsland</t>
+          <t>Høyinntektsland</t>
         </is>
       </c>
       <c r="B23">
-        <v>1996</v>
+        <v>2020</v>
       </c>
       <c r="C23">
-        <v>-0.7827794047619048</v>
+        <v>1.052266581818182</v>
+      </c>
+      <c r="D23">
+        <v>0.9009496863636364</v>
+      </c>
+      <c r="E23">
+        <v>1.203583477272727</v>
+      </c>
+      <c r="F23">
+        <v>1.045359163636364</v>
+      </c>
+      <c r="G23">
+        <v>0.9402849507575758</v>
+      </c>
+      <c r="H23">
+        <v>1.150433376515152</v>
+      </c>
+      <c r="I23">
+        <v>1.065859421212121</v>
+      </c>
+      <c r="J23">
+        <v>0.9196359750000001</v>
+      </c>
+      <c r="K23">
+        <v>1.212082867424242</v>
+      </c>
+      <c r="L23">
+        <v>1.025786456060606</v>
+      </c>
+      <c r="M23">
+        <v>0.9208387287878788</v>
+      </c>
+      <c r="N23">
+        <v>1.130734183333333</v>
+      </c>
+      <c r="O23">
+        <v>1.047317905681818</v>
+      </c>
+      <c r="P23">
+        <v>0.9204273352272727</v>
+      </c>
+      <c r="Q23">
+        <v>1.174208476136364</v>
       </c>
     </row>
     <row r="24">
@@ -667,10 +1661,52 @@
         </is>
       </c>
       <c r="B24">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C24">
-        <v>-0.7878291492063492</v>
+        <v>-0.7827794047619048</v>
+      </c>
+      <c r="D24">
+        <v>-0.8726078571428572</v>
+      </c>
+      <c r="E24">
+        <v>-0.6929509523809524</v>
+      </c>
+      <c r="F24">
+        <v>-0.8200391174603174</v>
+      </c>
+      <c r="G24">
+        <v>-0.9525994341269841</v>
+      </c>
+      <c r="H24">
+        <v>-0.6874788007936508</v>
+      </c>
+      <c r="I24">
+        <v>-0.7979761777777777</v>
+      </c>
+      <c r="J24">
+        <v>-0.9655310198412699</v>
+      </c>
+      <c r="K24">
+        <v>-0.6304213357142857</v>
+      </c>
+      <c r="L24">
+        <v>-0.7106551650793651</v>
+      </c>
+      <c r="M24">
+        <v>-0.8576797134920635</v>
+      </c>
+      <c r="N24">
+        <v>-0.5636306166666667</v>
+      </c>
+      <c r="O24">
+        <v>-0.7778624662698412</v>
+      </c>
+      <c r="P24">
+        <v>-0.9121045061507936</v>
+      </c>
+      <c r="Q24">
+        <v>-0.6436204263888889</v>
       </c>
     </row>
     <row r="25">
@@ -680,10 +1716,52 @@
         </is>
       </c>
       <c r="B25">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C25">
-        <v>-0.8042901047619048</v>
+        <v>-0.7878291492063492</v>
+      </c>
+      <c r="D25">
+        <v>-0.9048926420634921</v>
+      </c>
+      <c r="E25">
+        <v>-0.6707656563492064</v>
+      </c>
+      <c r="F25">
+        <v>-0.8218856888888889</v>
+      </c>
+      <c r="G25">
+        <v>-0.9452141841269841</v>
+      </c>
+      <c r="H25">
+        <v>-0.6985571936507936</v>
+      </c>
+      <c r="I25">
+        <v>-0.7647479476190476</v>
+      </c>
+      <c r="J25">
+        <v>-0.9161064015873016</v>
+      </c>
+      <c r="K25">
+        <v>-0.6133894936507937</v>
+      </c>
+      <c r="L25">
+        <v>-0.7647943571428572</v>
+      </c>
+      <c r="M25">
+        <v>-0.8875566849206349</v>
+      </c>
+      <c r="N25">
+        <v>-0.6420320293650793</v>
+      </c>
+      <c r="O25">
+        <v>-0.7848142857142857</v>
+      </c>
+      <c r="P25">
+        <v>-0.9134424781746032</v>
+      </c>
+      <c r="Q25">
+        <v>-0.6561860932539683</v>
       </c>
     </row>
     <row r="26">
@@ -693,10 +1771,52 @@
         </is>
       </c>
       <c r="B26">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C26">
-        <v>-0.82399575625</v>
+        <v>-0.8042901047619048</v>
+      </c>
+      <c r="D26">
+        <v>-0.9195044134920635</v>
+      </c>
+      <c r="E26">
+        <v>-0.6890757960317461</v>
+      </c>
+      <c r="F26">
+        <v>-0.8788962809523809</v>
+      </c>
+      <c r="G26">
+        <v>-0.9857831277777778</v>
+      </c>
+      <c r="H26">
+        <v>-0.7720094341269841</v>
+      </c>
+      <c r="I26">
+        <v>-0.7820179</v>
+      </c>
+      <c r="J26">
+        <v>-0.9215195571428572</v>
+      </c>
+      <c r="K26">
+        <v>-0.6425162428571428</v>
+      </c>
+      <c r="L26">
+        <v>-0.7866339285714286</v>
+      </c>
+      <c r="M26">
+        <v>-0.9076295436507936</v>
+      </c>
+      <c r="N26">
+        <v>-0.6656383134920635</v>
+      </c>
+      <c r="O26">
+        <v>-0.8129595535714286</v>
+      </c>
+      <c r="P26">
+        <v>-0.9336091605158731</v>
+      </c>
+      <c r="Q26">
+        <v>-0.6923099466269841</v>
       </c>
     </row>
     <row r="27">
@@ -706,10 +1826,52 @@
         </is>
       </c>
       <c r="B27">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C27">
-        <v>-0.8380392868852459</v>
+        <v>-0.82399575625</v>
+      </c>
+      <c r="D27">
+        <v>-0.92807685625</v>
+      </c>
+      <c r="E27">
+        <v>-0.7199146562500001</v>
+      </c>
+      <c r="F27">
+        <v>-0.890446571875</v>
+      </c>
+      <c r="G27">
+        <v>-0.99811307265625</v>
+      </c>
+      <c r="H27">
+        <v>-0.78278007109375</v>
+      </c>
+      <c r="I27">
+        <v>-0.8441004046875</v>
+      </c>
+      <c r="J27">
+        <v>-0.96546904296875</v>
+      </c>
+      <c r="K27">
+        <v>-0.72273176640625</v>
+      </c>
+      <c r="L27">
+        <v>-0.7907371046875</v>
+      </c>
+      <c r="M27">
+        <v>-0.909038515625</v>
+      </c>
+      <c r="N27">
+        <v>-0.67243569375</v>
+      </c>
+      <c r="O27">
+        <v>-0.837319959375</v>
+      </c>
+      <c r="P27">
+        <v>-0.950174371875</v>
+      </c>
+      <c r="Q27">
+        <v>-0.724465546875</v>
       </c>
     </row>
     <row r="28">
@@ -719,10 +1881,52 @@
         </is>
       </c>
       <c r="B28">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C28">
-        <v>-0.8692494457627119</v>
+        <v>-0.8380392868852459</v>
+      </c>
+      <c r="D28">
+        <v>-0.9448458918032787</v>
+      </c>
+      <c r="E28">
+        <v>-0.7312326819672131</v>
+      </c>
+      <c r="F28">
+        <v>-0.8632315081967213</v>
+      </c>
+      <c r="G28">
+        <v>-0.9704800090163934</v>
+      </c>
+      <c r="H28">
+        <v>-0.7559830073770492</v>
+      </c>
+      <c r="I28">
+        <v>-0.8780064754098361</v>
+      </c>
+      <c r="J28">
+        <v>-0.9783093442622951</v>
+      </c>
+      <c r="K28">
+        <v>-0.777703606557377</v>
+      </c>
+      <c r="L28">
+        <v>-0.8039643819672131</v>
+      </c>
+      <c r="M28">
+        <v>-0.9118513926229508</v>
+      </c>
+      <c r="N28">
+        <v>-0.6960773713114754</v>
+      </c>
+      <c r="O28">
+        <v>-0.8458104131147541</v>
+      </c>
+      <c r="P28">
+        <v>-0.9513716594262295</v>
+      </c>
+      <c r="Q28">
+        <v>-0.7402491668032787</v>
       </c>
     </row>
     <row r="29">
@@ -732,10 +1936,52 @@
         </is>
       </c>
       <c r="B29">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C29">
-        <v>-0.9299579685185185</v>
+        <v>-0.8692494457627119</v>
+      </c>
+      <c r="D29">
+        <v>-0.9714150330508474</v>
+      </c>
+      <c r="E29">
+        <v>-0.7670838584745763</v>
+      </c>
+      <c r="F29">
+        <v>-0.9062041322033898</v>
+      </c>
+      <c r="G29">
+        <v>-1.002419956779661</v>
+      </c>
+      <c r="H29">
+        <v>-0.8099883076271186</v>
+      </c>
+      <c r="I29">
+        <v>-0.9104809728813559</v>
+      </c>
+      <c r="J29">
+        <v>-1.008918893220339</v>
+      </c>
+      <c r="K29">
+        <v>-0.8120430525423729</v>
+      </c>
+      <c r="L29">
+        <v>-0.8477214779661016</v>
+      </c>
+      <c r="M29">
+        <v>-0.9445681644067797</v>
+      </c>
+      <c r="N29">
+        <v>-0.7508747915254237</v>
+      </c>
+      <c r="O29">
+        <v>-0.8834140072033898</v>
+      </c>
+      <c r="P29">
+        <v>-0.9818305118644067</v>
+      </c>
+      <c r="Q29">
+        <v>-0.7849975025423729</v>
       </c>
     </row>
     <row r="30">
@@ -745,10 +1991,52 @@
         </is>
       </c>
       <c r="B30">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C30">
-        <v>-0.9452783320754717</v>
+        <v>-0.9299579685185185</v>
+      </c>
+      <c r="D30">
+        <v>-1.030653328703704</v>
+      </c>
+      <c r="E30">
+        <v>-0.8292626083333333</v>
+      </c>
+      <c r="F30">
+        <v>-0.9216049111111111</v>
+      </c>
+      <c r="G30">
+        <v>-1.015814510185185</v>
+      </c>
+      <c r="H30">
+        <v>-0.827395312037037</v>
+      </c>
+      <c r="I30">
+        <v>-0.9617649962962963</v>
+      </c>
+      <c r="J30">
+        <v>-1.046455016666667</v>
+      </c>
+      <c r="K30">
+        <v>-0.8770749759259259</v>
+      </c>
+      <c r="L30">
+        <v>-0.8705498037037037</v>
+      </c>
+      <c r="M30">
+        <v>-0.9648971796296296</v>
+      </c>
+      <c r="N30">
+        <v>-0.7762024277777778</v>
+      </c>
+      <c r="O30">
+        <v>-0.9209694199074074</v>
+      </c>
+      <c r="P30">
+        <v>-1.014455008796296</v>
+      </c>
+      <c r="Q30">
+        <v>-0.8274838310185185</v>
       </c>
     </row>
     <row r="31">
@@ -758,10 +2046,52 @@
         </is>
       </c>
       <c r="B31">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C31">
-        <v>-0.9501641959183673</v>
+        <v>-0.9452783320754717</v>
+      </c>
+      <c r="D31">
+        <v>-1.049737291509434</v>
+      </c>
+      <c r="E31">
+        <v>-0.8408193726415094</v>
+      </c>
+      <c r="F31">
+        <v>-0.9184461698113208</v>
+      </c>
+      <c r="G31">
+        <v>-1.004907417924528</v>
+      </c>
+      <c r="H31">
+        <v>-0.8319849216981132</v>
+      </c>
+      <c r="I31">
+        <v>-0.9282583641509434</v>
+      </c>
+      <c r="J31">
+        <v>-1.024963947169811</v>
+      </c>
+      <c r="K31">
+        <v>-0.8315527811320754</v>
+      </c>
+      <c r="L31">
+        <v>-0.8668443981132076</v>
+      </c>
+      <c r="M31">
+        <v>-0.9560067933962264</v>
+      </c>
+      <c r="N31">
+        <v>-0.7776820028301887</v>
+      </c>
+      <c r="O31">
+        <v>-0.9147068160377359</v>
+      </c>
+      <c r="P31">
+        <v>-1.0089038625</v>
+      </c>
+      <c r="Q31">
+        <v>-0.8205097695754717</v>
       </c>
     </row>
     <row r="32">
@@ -771,10 +2101,52 @@
         </is>
       </c>
       <c r="B32">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C32">
-        <v>-0.9614280069767441</v>
+        <v>-0.9501641959183673</v>
+      </c>
+      <c r="D32">
+        <v>-1.062922795918367</v>
+      </c>
+      <c r="E32">
+        <v>-0.8374055959183674</v>
+      </c>
+      <c r="F32">
+        <v>-0.9309459795918368</v>
+      </c>
+      <c r="G32">
+        <v>-1.018036157142857</v>
+      </c>
+      <c r="H32">
+        <v>-0.8438558020408163</v>
+      </c>
+      <c r="I32">
+        <v>-0.9160366591836735</v>
+      </c>
+      <c r="J32">
+        <v>-1.013220374489796</v>
+      </c>
+      <c r="K32">
+        <v>-0.818852943877551</v>
+      </c>
+      <c r="L32">
+        <v>-0.8617587285714285</v>
+      </c>
+      <c r="M32">
+        <v>-0.9528297989795919</v>
+      </c>
+      <c r="N32">
+        <v>-0.7706876581632653</v>
+      </c>
+      <c r="O32">
+        <v>-0.9147263908163266</v>
+      </c>
+      <c r="P32">
+        <v>-1.011752281632653</v>
+      </c>
+      <c r="Q32">
+        <v>-0.8177005000000001</v>
       </c>
     </row>
     <row r="33">
@@ -784,10 +2156,52 @@
         </is>
       </c>
       <c r="B33">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C33">
-        <v>-1.02258106</v>
+        <v>-0.9614280069767441</v>
+      </c>
+      <c r="D33">
+        <v>-1.070710404651163</v>
+      </c>
+      <c r="E33">
+        <v>-0.8521456093023255</v>
+      </c>
+      <c r="F33">
+        <v>-0.952195288372093</v>
+      </c>
+      <c r="G33">
+        <v>-1.033317858139535</v>
+      </c>
+      <c r="H33">
+        <v>-0.8710727186046512</v>
+      </c>
+      <c r="I33">
+        <v>-0.932415588372093</v>
+      </c>
+      <c r="J33">
+        <v>-1.024783210465116</v>
+      </c>
+      <c r="K33">
+        <v>-0.8400479662790698</v>
+      </c>
+      <c r="L33">
+        <v>-0.8902885069767442</v>
+      </c>
+      <c r="M33">
+        <v>-0.9781829046511628</v>
+      </c>
+      <c r="N33">
+        <v>-0.8023941093023256</v>
+      </c>
+      <c r="O33">
+        <v>-0.9340818476744186</v>
+      </c>
+      <c r="P33">
+        <v>-1.026748594476744</v>
+      </c>
+      <c r="Q33">
+        <v>-0.841415100872093</v>
       </c>
     </row>
     <row r="34">
@@ -797,10 +2211,52 @@
         </is>
       </c>
       <c r="B34">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C34">
-        <v>-1.048741097142857</v>
+        <v>-1.02258106</v>
+      </c>
+      <c r="D34">
+        <v>-1.126834845</v>
+      </c>
+      <c r="E34">
+        <v>-0.918327275</v>
+      </c>
+      <c r="F34">
+        <v>-0.9835904</v>
+      </c>
+      <c r="G34">
+        <v>-1.059658185</v>
+      </c>
+      <c r="H34">
+        <v>-0.907522615</v>
+      </c>
+      <c r="I34">
+        <v>-0.94552699</v>
+      </c>
+      <c r="J34">
+        <v>-1.0335434675</v>
+      </c>
+      <c r="K34">
+        <v>-0.8575105125</v>
+      </c>
+      <c r="L34">
+        <v>-0.8691403325</v>
+      </c>
+      <c r="M34">
+        <v>-0.95735202375</v>
+      </c>
+      <c r="N34">
+        <v>-0.7809286412500001</v>
+      </c>
+      <c r="O34">
+        <v>-0.955209695625</v>
+      </c>
+      <c r="P34">
+        <v>-1.0443471303125</v>
+      </c>
+      <c r="Q34">
+        <v>-0.8660722609375</v>
       </c>
     </row>
     <row r="35">
@@ -810,10 +2266,52 @@
         </is>
       </c>
       <c r="B35">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C35">
-        <v>-1.030260213888889</v>
+        <v>-1.048741097142857</v>
+      </c>
+      <c r="D35">
+        <v>-1.153005814285714</v>
+      </c>
+      <c r="E35">
+        <v>-0.94447638</v>
+      </c>
+      <c r="F35">
+        <v>-1.032665948571429</v>
+      </c>
+      <c r="G35">
+        <v>-1.107105621428572</v>
+      </c>
+      <c r="H35">
+        <v>-0.9582262757142858</v>
+      </c>
+      <c r="I35">
+        <v>-0.9636665342857143</v>
+      </c>
+      <c r="J35">
+        <v>-1.050827462857143</v>
+      </c>
+      <c r="K35">
+        <v>-0.8765056057142857</v>
+      </c>
+      <c r="L35">
+        <v>-0.9226500485714285</v>
+      </c>
+      <c r="M35">
+        <v>-1.008164398571429</v>
+      </c>
+      <c r="N35">
+        <v>-0.8371356985714286</v>
+      </c>
+      <c r="O35">
+        <v>-0.9919309071428571</v>
+      </c>
+      <c r="P35">
+        <v>-1.079775824285714</v>
+      </c>
+      <c r="Q35">
+        <v>-0.90408599</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +2321,52 @@
         </is>
       </c>
       <c r="B36">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C36">
-        <v>-1.072646577777778</v>
+        <v>-1.030260213888889</v>
+      </c>
+      <c r="D36">
+        <v>-1.134419733333333</v>
+      </c>
+      <c r="E36">
+        <v>-0.9261006944444444</v>
+      </c>
+      <c r="F36">
+        <v>-1.011581636111111</v>
+      </c>
+      <c r="G36">
+        <v>-1.083093258333333</v>
+      </c>
+      <c r="H36">
+        <v>-0.9400700138888889</v>
+      </c>
+      <c r="I36">
+        <v>-0.9482329638888889</v>
+      </c>
+      <c r="J36">
+        <v>-1.034304559722222</v>
+      </c>
+      <c r="K36">
+        <v>-0.8621613680555555</v>
+      </c>
+      <c r="L36">
+        <v>-0.9157229</v>
+      </c>
+      <c r="M36">
+        <v>-0.9991737861111111</v>
+      </c>
+      <c r="N36">
+        <v>-0.8322720138888888</v>
+      </c>
+      <c r="O36">
+        <v>-0.9764494284722223</v>
+      </c>
+      <c r="P36">
+        <v>-1.062747834375</v>
+      </c>
+      <c r="Q36">
+        <v>-0.8901510225694445</v>
       </c>
     </row>
     <row r="37">
@@ -836,10 +2376,52 @@
         </is>
       </c>
       <c r="B37">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C37">
-        <v>-1.081146591176471</v>
+        <v>-1.072646577777778</v>
+      </c>
+      <c r="D37">
+        <v>-1.176134709722222</v>
+      </c>
+      <c r="E37">
+        <v>-0.9691584458333333</v>
+      </c>
+      <c r="F37">
+        <v>-1.029607841666667</v>
+      </c>
+      <c r="G37">
+        <v>-1.102239980555556</v>
+      </c>
+      <c r="H37">
+        <v>-0.9569757027777778</v>
+      </c>
+      <c r="I37">
+        <v>-0.9477408083333333</v>
+      </c>
+      <c r="J37">
+        <v>-1.041339018055556</v>
+      </c>
+      <c r="K37">
+        <v>-0.8541425986111111</v>
+      </c>
+      <c r="L37">
+        <v>-0.9425953055555556</v>
+      </c>
+      <c r="M37">
+        <v>-1.022857240277778</v>
+      </c>
+      <c r="N37">
+        <v>-0.8623333708333334</v>
+      </c>
+      <c r="O37">
+        <v>-0.9981476333333333</v>
+      </c>
+      <c r="P37">
+        <v>-1.085642737152778</v>
+      </c>
+      <c r="Q37">
+        <v>-0.9106525295138889</v>
       </c>
     </row>
     <row r="38">
@@ -849,10 +2431,52 @@
         </is>
       </c>
       <c r="B38">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C38">
-        <v>-1.161992464516129</v>
+        <v>-1.081146591176471</v>
+      </c>
+      <c r="D38">
+        <v>-1.174697488235294</v>
+      </c>
+      <c r="E38">
+        <v>-0.987595694117647</v>
+      </c>
+      <c r="F38">
+        <v>-1.015848541176471</v>
+      </c>
+      <c r="G38">
+        <v>-1.086118766176471</v>
+      </c>
+      <c r="H38">
+        <v>-0.9455783161764706</v>
+      </c>
+      <c r="I38">
+        <v>-0.9293215823529412</v>
+      </c>
+      <c r="J38">
+        <v>-1.020125145588235</v>
+      </c>
+      <c r="K38">
+        <v>-0.8385180191176471</v>
+      </c>
+      <c r="L38">
+        <v>-0.9295074882352941</v>
+      </c>
+      <c r="M38">
+        <v>-1.008790755882353</v>
+      </c>
+      <c r="N38">
+        <v>-0.8502242205882353</v>
+      </c>
+      <c r="O38">
+        <v>-0.9889560507352941</v>
+      </c>
+      <c r="P38">
+        <v>-1.072433038970588</v>
+      </c>
+      <c r="Q38">
+        <v>-0.9054790625</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +2486,52 @@
         </is>
       </c>
       <c r="B39">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C39">
-        <v>-1.158552577419355</v>
+        <v>-1.161992464516129</v>
+      </c>
+      <c r="D39">
+        <v>-1.262022111290323</v>
+      </c>
+      <c r="E39">
+        <v>-1.061962817741935</v>
+      </c>
+      <c r="F39">
+        <v>-0.9826111483870967</v>
+      </c>
+      <c r="G39">
+        <v>-1.059514237096774</v>
+      </c>
+      <c r="H39">
+        <v>-0.9057080596774194</v>
+      </c>
+      <c r="I39">
+        <v>-0.9628785677419355</v>
+      </c>
+      <c r="J39">
+        <v>-1.057829440322581</v>
+      </c>
+      <c r="K39">
+        <v>-0.8679276951612903</v>
+      </c>
+      <c r="L39">
+        <v>-0.9366174096774194</v>
+      </c>
+      <c r="M39">
+        <v>-1.016521091935484</v>
+      </c>
+      <c r="N39">
+        <v>-0.8567137274193548</v>
+      </c>
+      <c r="O39">
+        <v>-1.011024897580645</v>
+      </c>
+      <c r="P39">
+        <v>-1.09897172016129</v>
+      </c>
+      <c r="Q39">
+        <v>-0.9230780749999999</v>
       </c>
     </row>
     <row r="40">
@@ -875,10 +2541,52 @@
         </is>
       </c>
       <c r="B40">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C40">
-        <v>-1.147707829032258</v>
+        <v>-1.158552577419355</v>
+      </c>
+      <c r="D40">
+        <v>-1.254484827419355</v>
+      </c>
+      <c r="E40">
+        <v>-1.062620327419355</v>
+      </c>
+      <c r="F40">
+        <v>-0.9560765741935484</v>
+      </c>
+      <c r="G40">
+        <v>-1.033143840322581</v>
+      </c>
+      <c r="H40">
+        <v>-0.8790093080645162</v>
+      </c>
+      <c r="I40">
+        <v>-0.9579258322580645</v>
+      </c>
+      <c r="J40">
+        <v>-1.049031064516129</v>
+      </c>
+      <c r="K40">
+        <v>-0.8668206000000001</v>
+      </c>
+      <c r="L40">
+        <v>-0.8934009451612903</v>
+      </c>
+      <c r="M40">
+        <v>-0.9719235758064516</v>
+      </c>
+      <c r="N40">
+        <v>-0.814878314516129</v>
+      </c>
+      <c r="O40">
+        <v>-0.9914889822580645</v>
+      </c>
+      <c r="P40">
+        <v>-1.077145827016129</v>
+      </c>
+      <c r="Q40">
+        <v>-0.9058321375</v>
       </c>
     </row>
     <row r="41">
@@ -888,10 +2596,52 @@
         </is>
       </c>
       <c r="B41">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C41">
-        <v>-1.194566823529412</v>
+        <v>-1.147707829032258</v>
+      </c>
+      <c r="D41">
+        <v>-1.24120805</v>
+      </c>
+      <c r="E41">
+        <v>-1.054207608064516</v>
+      </c>
+      <c r="F41">
+        <v>-1.006595316129032</v>
+      </c>
+      <c r="G41">
+        <v>-1.091819370967742</v>
+      </c>
+      <c r="H41">
+        <v>-0.9213712612903225</v>
+      </c>
+      <c r="I41">
+        <v>-0.9997203709677419</v>
+      </c>
+      <c r="J41">
+        <v>-1.092707641935484</v>
+      </c>
+      <c r="K41">
+        <v>-0.9067331</v>
+      </c>
+      <c r="L41">
+        <v>-0.9170881645161291</v>
+      </c>
+      <c r="M41">
+        <v>-0.9964762887096774</v>
+      </c>
+      <c r="N41">
+        <v>-0.8377000403225806</v>
+      </c>
+      <c r="O41">
+        <v>-1.01777792016129</v>
+      </c>
+      <c r="P41">
+        <v>-1.105552837903226</v>
+      </c>
+      <c r="Q41">
+        <v>-0.9300030024193549</v>
       </c>
     </row>
     <row r="42">
@@ -901,10 +2651,52 @@
         </is>
       </c>
       <c r="B42">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C42">
-        <v>-1.206168725806452</v>
+        <v>-1.194566823529412</v>
+      </c>
+      <c r="D42">
+        <v>-1.29217198382353</v>
+      </c>
+      <c r="E42">
+        <v>-1.096961663235294</v>
+      </c>
+      <c r="F42">
+        <v>-1.058460761764706</v>
+      </c>
+      <c r="G42">
+        <v>-1.13918755</v>
+      </c>
+      <c r="H42">
+        <v>-0.9777339735294117</v>
+      </c>
+      <c r="I42">
+        <v>-1.037815017647059</v>
+      </c>
+      <c r="J42">
+        <v>-1.130131214705882</v>
+      </c>
+      <c r="K42">
+        <v>-0.9454988205882353</v>
+      </c>
+      <c r="L42">
+        <v>-0.9576174823529412</v>
+      </c>
+      <c r="M42">
+        <v>-1.032102330882353</v>
+      </c>
+      <c r="N42">
+        <v>-0.8831326338235294</v>
+      </c>
+      <c r="O42">
+        <v>-1.062115021323529</v>
+      </c>
+      <c r="P42">
+        <v>-1.148398269852941</v>
+      </c>
+      <c r="Q42">
+        <v>-0.9758317727941177</v>
       </c>
     </row>
     <row r="43">
@@ -914,36 +2706,162 @@
         </is>
       </c>
       <c r="B43">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C43">
-        <v>-1.274514275862069</v>
+        <v>-1.206168725806452</v>
+      </c>
+      <c r="D43">
+        <v>-1.307115280645161</v>
+      </c>
+      <c r="E43">
+        <v>-1.105222170967742</v>
+      </c>
+      <c r="F43">
+        <v>-1.069863825806452</v>
+      </c>
+      <c r="G43">
+        <v>-1.14774019516129</v>
+      </c>
+      <c r="H43">
+        <v>-0.9919874564516129</v>
+      </c>
+      <c r="I43">
+        <v>-1.040564858064516</v>
+      </c>
+      <c r="J43">
+        <v>-1.131400640322581</v>
+      </c>
+      <c r="K43">
+        <v>-0.9497290758064516</v>
+      </c>
+      <c r="L43">
+        <v>-0.9935116838709678</v>
+      </c>
+      <c r="M43">
+        <v>-1.068006958064516</v>
+      </c>
+      <c r="N43">
+        <v>-0.9190164096774194</v>
+      </c>
+      <c r="O43">
+        <v>-1.077527273387097</v>
+      </c>
+      <c r="P43">
+        <v>-1.163565768548387</v>
+      </c>
+      <c r="Q43">
+        <v>-0.9914887782258065</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Lavere mellominntektsland</t>
+          <t>Lavinntektsland</t>
         </is>
       </c>
       <c r="B44">
-        <v>1996</v>
+        <v>2019</v>
       </c>
       <c r="C44">
-        <v>-0.3163161092592592</v>
+        <v>-1.274514275862069</v>
+      </c>
+      <c r="D44">
+        <v>-1.378310727586207</v>
+      </c>
+      <c r="E44">
+        <v>-1.170717824137931</v>
+      </c>
+      <c r="F44">
+        <v>-1.129733420689655</v>
+      </c>
+      <c r="G44">
+        <v>-1.20901240862069</v>
+      </c>
+      <c r="H44">
+        <v>-1.050454432758621</v>
+      </c>
+      <c r="I44">
+        <v>-1.121598113793104</v>
+      </c>
+      <c r="J44">
+        <v>-1.212550817241379</v>
+      </c>
+      <c r="K44">
+        <v>-1.030645410344828</v>
+      </c>
+      <c r="L44">
+        <v>-1.059766665517241</v>
+      </c>
+      <c r="M44">
+        <v>-1.138365810344828</v>
+      </c>
+      <c r="N44">
+        <v>-0.9811675206896552</v>
+      </c>
+      <c r="O44">
+        <v>-1.146403118965517</v>
+      </c>
+      <c r="P44">
+        <v>-1.234559940948276</v>
+      </c>
+      <c r="Q44">
+        <v>-1.058246296982759</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lavere mellominntektsland</t>
+          <t>Lavinntektsland</t>
         </is>
       </c>
       <c r="B45">
-        <v>1998</v>
+        <v>2020</v>
       </c>
       <c r="C45">
-        <v>-0.3493207839285714</v>
+        <v>-1.204852133333333</v>
+      </c>
+      <c r="D45">
+        <v>-1.314733842592593</v>
+      </c>
+      <c r="E45">
+        <v>-1.094970424074074</v>
+      </c>
+      <c r="F45">
+        <v>-1.12093617037037</v>
+      </c>
+      <c r="G45">
+        <v>-1.199046511111111</v>
+      </c>
+      <c r="H45">
+        <v>-1.04282582962963</v>
+      </c>
+      <c r="I45">
+        <v>-1.155234214814815</v>
+      </c>
+      <c r="J45">
+        <v>-1.255859975925926</v>
+      </c>
+      <c r="K45">
+        <v>-1.054608453703704</v>
+      </c>
+      <c r="L45">
+        <v>-1.026651225925926</v>
+      </c>
+      <c r="M45">
+        <v>-1.106145837037037</v>
+      </c>
+      <c r="N45">
+        <v>-0.9471566148148148</v>
+      </c>
+      <c r="O45">
+        <v>-1.126918436111111</v>
+      </c>
+      <c r="P45">
+        <v>-1.218946541666667</v>
+      </c>
+      <c r="Q45">
+        <v>-1.034890330555556</v>
       </c>
     </row>
     <row r="46">
@@ -953,10 +2871,52 @@
         </is>
       </c>
       <c r="B46">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="C46">
-        <v>-0.4105267830188679</v>
+        <v>-0.3163161092592592</v>
+      </c>
+      <c r="D46">
+        <v>-0.4079380175925926</v>
+      </c>
+      <c r="E46">
+        <v>-0.2246942009259259</v>
+      </c>
+      <c r="F46">
+        <v>-0.3542529851851852</v>
+      </c>
+      <c r="G46">
+        <v>-0.4720616481481482</v>
+      </c>
+      <c r="H46">
+        <v>-0.2364443222222222</v>
+      </c>
+      <c r="I46">
+        <v>-0.2365822685185185</v>
+      </c>
+      <c r="J46">
+        <v>-0.3967303231481482</v>
+      </c>
+      <c r="K46">
+        <v>-0.07643421388888889</v>
+      </c>
+      <c r="L46">
+        <v>-0.3746337574074074</v>
+      </c>
+      <c r="M46">
+        <v>-0.5172830592592592</v>
+      </c>
+      <c r="N46">
+        <v>-0.2319844555555556</v>
+      </c>
+      <c r="O46">
+        <v>-0.3204462800925926</v>
+      </c>
+      <c r="P46">
+        <v>-0.4485032620370371</v>
+      </c>
+      <c r="Q46">
+        <v>-0.1923892981481482</v>
       </c>
     </row>
     <row r="47">
@@ -966,10 +2926,52 @@
         </is>
       </c>
       <c r="B47">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="C47">
-        <v>-0.3824452716981132</v>
+        <v>-0.3493207839285714</v>
+      </c>
+      <c r="D47">
+        <v>-0.4792180794642857</v>
+      </c>
+      <c r="E47">
+        <v>-0.2194234883928571</v>
+      </c>
+      <c r="F47">
+        <v>-0.293606525</v>
+      </c>
+      <c r="G47">
+        <v>-0.4239604928571429</v>
+      </c>
+      <c r="H47">
+        <v>-0.1632525571428571</v>
+      </c>
+      <c r="I47">
+        <v>-0.3201337875</v>
+      </c>
+      <c r="J47">
+        <v>-0.4865313598214286</v>
+      </c>
+      <c r="K47">
+        <v>-0.1537362151785714</v>
+      </c>
+      <c r="L47">
+        <v>-0.3343043946428572</v>
+      </c>
+      <c r="M47">
+        <v>-0.4657856107142857</v>
+      </c>
+      <c r="N47">
+        <v>-0.2028231785714286</v>
+      </c>
+      <c r="O47">
+        <v>-0.3243413727678571</v>
+      </c>
+      <c r="P47">
+        <v>-0.4638738857142857</v>
+      </c>
+      <c r="Q47">
+        <v>-0.1848088598214286</v>
       </c>
     </row>
     <row r="48">
@@ -979,10 +2981,52 @@
         </is>
       </c>
       <c r="B48">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="C48">
-        <v>-0.3879607</v>
+        <v>-0.4105267830188679</v>
+      </c>
+      <c r="D48">
+        <v>-0.5290410443396226</v>
+      </c>
+      <c r="E48">
+        <v>-0.2920125216981132</v>
+      </c>
+      <c r="F48">
+        <v>-0.3609489113207547</v>
+      </c>
+      <c r="G48">
+        <v>-0.4705440216981132</v>
+      </c>
+      <c r="H48">
+        <v>-0.2513538009433962</v>
+      </c>
+      <c r="I48">
+        <v>-0.3649571509433962</v>
+      </c>
+      <c r="J48">
+        <v>-0.5127254811320755</v>
+      </c>
+      <c r="K48">
+        <v>-0.217188820754717</v>
+      </c>
+      <c r="L48">
+        <v>-0.4094501603773585</v>
+      </c>
+      <c r="M48">
+        <v>-0.5317187320754717</v>
+      </c>
+      <c r="N48">
+        <v>-0.2871815886792453</v>
+      </c>
+      <c r="O48">
+        <v>-0.3864707514150944</v>
+      </c>
+      <c r="P48">
+        <v>-0.5110073198113208</v>
+      </c>
+      <c r="Q48">
+        <v>-0.261934183018868</v>
       </c>
     </row>
     <row r="49">
@@ -992,10 +3036,52 @@
         </is>
       </c>
       <c r="B49">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C49">
-        <v>-0.4584811981132075</v>
+        <v>-0.3824452716981132</v>
+      </c>
+      <c r="D49">
+        <v>-0.4891040094339623</v>
+      </c>
+      <c r="E49">
+        <v>-0.2757865339622642</v>
+      </c>
+      <c r="F49">
+        <v>-0.3587519264150944</v>
+      </c>
+      <c r="G49">
+        <v>-0.4696437405660378</v>
+      </c>
+      <c r="H49">
+        <v>-0.2478601122641509</v>
+      </c>
+      <c r="I49">
+        <v>-0.3514710283018868</v>
+      </c>
+      <c r="J49">
+        <v>-0.4842129367924528</v>
+      </c>
+      <c r="K49">
+        <v>-0.2187291198113208</v>
+      </c>
+      <c r="L49">
+        <v>-0.4090083320754717</v>
+      </c>
+      <c r="M49">
+        <v>-0.524945429245283</v>
+      </c>
+      <c r="N49">
+        <v>-0.2930712349056604</v>
+      </c>
+      <c r="O49">
+        <v>-0.3754191396226415</v>
+      </c>
+      <c r="P49">
+        <v>-0.491976529009434</v>
+      </c>
+      <c r="Q49">
+        <v>-0.2588617502358491</v>
       </c>
     </row>
     <row r="50">
@@ -1005,10 +3091,52 @@
         </is>
       </c>
       <c r="B50">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C50">
-        <v>-0.4975871824561404</v>
+        <v>-0.3879607</v>
+      </c>
+      <c r="D50">
+        <v>-0.4938356236363636</v>
+      </c>
+      <c r="E50">
+        <v>-0.2820857763636364</v>
+      </c>
+      <c r="F50">
+        <v>-0.4170689836363636</v>
+      </c>
+      <c r="G50">
+        <v>-0.5240783372727272</v>
+      </c>
+      <c r="H50">
+        <v>-0.31005963</v>
+      </c>
+      <c r="I50">
+        <v>-0.3725997181818182</v>
+      </c>
+      <c r="J50">
+        <v>-0.4789622481818182</v>
+      </c>
+      <c r="K50">
+        <v>-0.2662371881818182</v>
+      </c>
+      <c r="L50">
+        <v>-0.4174219527272727</v>
+      </c>
+      <c r="M50">
+        <v>-0.5252164018181819</v>
+      </c>
+      <c r="N50">
+        <v>-0.3096275036363637</v>
+      </c>
+      <c r="O50">
+        <v>-0.3987628386363636</v>
+      </c>
+      <c r="P50">
+        <v>-0.5055231527272728</v>
+      </c>
+      <c r="Q50">
+        <v>-0.2920025245454546</v>
       </c>
     </row>
     <row r="51">
@@ -1018,10 +3146,52 @@
         </is>
       </c>
       <c r="B51">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C51">
-        <v>-0.4681523163636364</v>
+        <v>-0.4584811981132075</v>
+      </c>
+      <c r="D51">
+        <v>-0.5640437650943396</v>
+      </c>
+      <c r="E51">
+        <v>-0.3529186311320754</v>
+      </c>
+      <c r="F51">
+        <v>-0.4491826226415094</v>
+      </c>
+      <c r="G51">
+        <v>-0.5435599462264151</v>
+      </c>
+      <c r="H51">
+        <v>-0.3548052990566038</v>
+      </c>
+      <c r="I51">
+        <v>-0.4175876735849057</v>
+      </c>
+      <c r="J51">
+        <v>-0.5199942198113208</v>
+      </c>
+      <c r="K51">
+        <v>-0.3151811273584906</v>
+      </c>
+      <c r="L51">
+        <v>-0.4458631849056604</v>
+      </c>
+      <c r="M51">
+        <v>-0.5434763896226416</v>
+      </c>
+      <c r="N51">
+        <v>-0.3482499801886793</v>
+      </c>
+      <c r="O51">
+        <v>-0.4427786698113208</v>
+      </c>
+      <c r="P51">
+        <v>-0.5427685801886792</v>
+      </c>
+      <c r="Q51">
+        <v>-0.3427887594339623</v>
       </c>
     </row>
     <row r="52">
@@ -1031,10 +3201,52 @@
         </is>
       </c>
       <c r="B52">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C52">
-        <v>-0.4858999</v>
+        <v>-0.4975871824561404</v>
+      </c>
+      <c r="D52">
+        <v>-0.599861798245614</v>
+      </c>
+      <c r="E52">
+        <v>-0.3953125666666667</v>
+      </c>
+      <c r="F52">
+        <v>-0.4656202192982456</v>
+      </c>
+      <c r="G52">
+        <v>-0.5593105368421053</v>
+      </c>
+      <c r="H52">
+        <v>-0.371929901754386</v>
+      </c>
+      <c r="I52">
+        <v>-0.4699668561403509</v>
+      </c>
+      <c r="J52">
+        <v>-0.5581106043859649</v>
+      </c>
+      <c r="K52">
+        <v>-0.3818231078947368</v>
+      </c>
+      <c r="L52">
+        <v>-0.4960223175438597</v>
+      </c>
+      <c r="M52">
+        <v>-0.5896350710526316</v>
+      </c>
+      <c r="N52">
+        <v>-0.4024095640350877</v>
+      </c>
+      <c r="O52">
+        <v>-0.4822991438596491</v>
+      </c>
+      <c r="P52">
+        <v>-0.576729502631579</v>
+      </c>
+      <c r="Q52">
+        <v>-0.3878687850877193</v>
       </c>
     </row>
     <row r="53">
@@ -1044,10 +3256,52 @@
         </is>
       </c>
       <c r="B53">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C53">
-        <v>-0.5464448203703703</v>
+        <v>-0.4681523163636364</v>
+      </c>
+      <c r="D53">
+        <v>-0.5774008881818182</v>
+      </c>
+      <c r="E53">
+        <v>-0.3589037445454545</v>
+      </c>
+      <c r="F53">
+        <v>-0.4612988272727273</v>
+      </c>
+      <c r="G53">
+        <v>-0.5533614754545455</v>
+      </c>
+      <c r="H53">
+        <v>-0.3692361790909091</v>
+      </c>
+      <c r="I53">
+        <v>-0.4853594309090909</v>
+      </c>
+      <c r="J53">
+        <v>-0.5888776818181818</v>
+      </c>
+      <c r="K53">
+        <v>-0.38184118</v>
+      </c>
+      <c r="L53">
+        <v>-0.4678384836363637</v>
+      </c>
+      <c r="M53">
+        <v>-0.5626680281818182</v>
+      </c>
+      <c r="N53">
+        <v>-0.3730089390909091</v>
+      </c>
+      <c r="O53">
+        <v>-0.4706622645454546</v>
+      </c>
+      <c r="P53">
+        <v>-0.5705770184090909</v>
+      </c>
+      <c r="Q53">
+        <v>-0.3707475106818182</v>
       </c>
     </row>
     <row r="54">
@@ -1057,10 +3311,52 @@
         </is>
       </c>
       <c r="B54">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C54">
-        <v>-0.53059156</v>
+        <v>-0.4858999</v>
+      </c>
+      <c r="D54">
+        <v>-0.6017289712962963</v>
+      </c>
+      <c r="E54">
+        <v>-0.3700708287037037</v>
+      </c>
+      <c r="F54">
+        <v>-0.4750415740740741</v>
+      </c>
+      <c r="G54">
+        <v>-0.5662753120370371</v>
+      </c>
+      <c r="H54">
+        <v>-0.3838078361111111</v>
+      </c>
+      <c r="I54">
+        <v>-0.4920357759259259</v>
+      </c>
+      <c r="J54">
+        <v>-0.5962597435185185</v>
+      </c>
+      <c r="K54">
+        <v>-0.3878118083333333</v>
+      </c>
+      <c r="L54">
+        <v>-0.5192288185185185</v>
+      </c>
+      <c r="M54">
+        <v>-0.6142168509259259</v>
+      </c>
+      <c r="N54">
+        <v>-0.4242407861111111</v>
+      </c>
+      <c r="O54">
+        <v>-0.4930515171296296</v>
+      </c>
+      <c r="P54">
+        <v>-0.5946202194444444</v>
+      </c>
+      <c r="Q54">
+        <v>-0.3914828148148148</v>
       </c>
     </row>
     <row r="55">
@@ -1070,10 +3366,52 @@
         </is>
       </c>
       <c r="B55">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C55">
-        <v>-0.6101367600000001</v>
+        <v>-0.5464448203703703</v>
+      </c>
+      <c r="D55">
+        <v>-0.6640136231481482</v>
+      </c>
+      <c r="E55">
+        <v>-0.4288760175925926</v>
+      </c>
+      <c r="F55">
+        <v>-0.523043862962963</v>
+      </c>
+      <c r="G55">
+        <v>-0.6074039092592592</v>
+      </c>
+      <c r="H55">
+        <v>-0.4386838166666667</v>
+      </c>
+      <c r="I55">
+        <v>-0.5717075333333334</v>
+      </c>
+      <c r="J55">
+        <v>-0.6713769546296297</v>
+      </c>
+      <c r="K55">
+        <v>-0.4720381120370371</v>
+      </c>
+      <c r="L55">
+        <v>-0.5675459611111111</v>
+      </c>
+      <c r="M55">
+        <v>-0.6630678194444445</v>
+      </c>
+      <c r="N55">
+        <v>-0.4720241027777778</v>
+      </c>
+      <c r="O55">
+        <v>-0.5521855444444445</v>
+      </c>
+      <c r="P55">
+        <v>-0.6514655766203704</v>
+      </c>
+      <c r="Q55">
+        <v>-0.4529055122685185</v>
       </c>
     </row>
     <row r="56">
@@ -1083,10 +3421,52 @@
         </is>
       </c>
       <c r="B56">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C56">
-        <v>-0.5749268754716981</v>
+        <v>-0.53059156</v>
+      </c>
+      <c r="D56">
+        <v>-0.6438228236363637</v>
+      </c>
+      <c r="E56">
+        <v>-0.4173602963636364</v>
+      </c>
+      <c r="F56">
+        <v>-0.5246581909090909</v>
+      </c>
+      <c r="G56">
+        <v>-0.6060049836363637</v>
+      </c>
+      <c r="H56">
+        <v>-0.4433113981818182</v>
+      </c>
+      <c r="I56">
+        <v>-0.5541603927272727</v>
+      </c>
+      <c r="J56">
+        <v>-0.6492375918181819</v>
+      </c>
+      <c r="K56">
+        <v>-0.4590831936363636</v>
+      </c>
+      <c r="L56">
+        <v>-0.5588569527272728</v>
+      </c>
+      <c r="M56">
+        <v>-0.6546114763636364</v>
+      </c>
+      <c r="N56">
+        <v>-0.4631024290909091</v>
+      </c>
+      <c r="O56">
+        <v>-0.5420667740909091</v>
+      </c>
+      <c r="P56">
+        <v>-0.6384192188636364</v>
+      </c>
+      <c r="Q56">
+        <v>-0.4457143293181818</v>
       </c>
     </row>
     <row r="57">
@@ -1096,10 +3476,52 @@
         </is>
       </c>
       <c r="B57">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C57">
-        <v>-0.5601964680851064</v>
+        <v>-0.6101367600000001</v>
+      </c>
+      <c r="D57">
+        <v>-0.7241126036363637</v>
+      </c>
+      <c r="E57">
+        <v>-0.4961609163636364</v>
+      </c>
+      <c r="F57">
+        <v>-0.5683276527272727</v>
+      </c>
+      <c r="G57">
+        <v>-0.6487414736363636</v>
+      </c>
+      <c r="H57">
+        <v>-0.4879138318181818</v>
+      </c>
+      <c r="I57">
+        <v>-0.5989031836363636</v>
+      </c>
+      <c r="J57">
+        <v>-0.6935533463636363</v>
+      </c>
+      <c r="K57">
+        <v>-0.504253020909091</v>
+      </c>
+      <c r="L57">
+        <v>-0.567037910909091</v>
+      </c>
+      <c r="M57">
+        <v>-0.6621543718181818</v>
+      </c>
+      <c r="N57">
+        <v>-0.47192145</v>
+      </c>
+      <c r="O57">
+        <v>-0.5861013768181819</v>
+      </c>
+      <c r="P57">
+        <v>-0.6821404488636363</v>
+      </c>
+      <c r="Q57">
+        <v>-0.4900623047727273</v>
       </c>
     </row>
     <row r="58">
@@ -1109,10 +3531,52 @@
         </is>
       </c>
       <c r="B58">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C58">
-        <v>-0.5755747142857143</v>
+        <v>-0.5749268754716981</v>
+      </c>
+      <c r="D58">
+        <v>-0.6890978377358491</v>
+      </c>
+      <c r="E58">
+        <v>-0.4607559132075472</v>
+      </c>
+      <c r="F58">
+        <v>-0.5756365867924528</v>
+      </c>
+      <c r="G58">
+        <v>-0.6526097896226415</v>
+      </c>
+      <c r="H58">
+        <v>-0.4986633839622641</v>
+      </c>
+      <c r="I58">
+        <v>-0.5434746811320754</v>
+      </c>
+      <c r="J58">
+        <v>-0.6364155764150943</v>
+      </c>
+      <c r="K58">
+        <v>-0.4505337858490566</v>
+      </c>
+      <c r="L58">
+        <v>-0.557068158490566</v>
+      </c>
+      <c r="M58">
+        <v>-0.6501248622641509</v>
+      </c>
+      <c r="N58">
+        <v>-0.4640114547169811</v>
+      </c>
+      <c r="O58">
+        <v>-0.5627765754716981</v>
+      </c>
+      <c r="P58">
+        <v>-0.657062016509434</v>
+      </c>
+      <c r="Q58">
+        <v>-0.4684911344339623</v>
       </c>
     </row>
     <row r="59">
@@ -1122,10 +3586,52 @@
         </is>
       </c>
       <c r="B59">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C59">
-        <v>-0.561852318</v>
+        <v>-0.5601964680851064</v>
+      </c>
+      <c r="D59">
+        <v>-0.6686324414893617</v>
+      </c>
+      <c r="E59">
+        <v>-0.4517604946808511</v>
+      </c>
+      <c r="F59">
+        <v>-0.5634580723404256</v>
+      </c>
+      <c r="G59">
+        <v>-0.6376778957446808</v>
+      </c>
+      <c r="H59">
+        <v>-0.4892382489361702</v>
+      </c>
+      <c r="I59">
+        <v>-0.5293525893617022</v>
+      </c>
+      <c r="J59">
+        <v>-0.6248727117021277</v>
+      </c>
+      <c r="K59">
+        <v>-0.4338324670212766</v>
+      </c>
+      <c r="L59">
+        <v>-0.5410336638297872</v>
+      </c>
+      <c r="M59">
+        <v>-0.6262724042553192</v>
+      </c>
+      <c r="N59">
+        <v>-0.4557949234042553</v>
+      </c>
+      <c r="O59">
+        <v>-0.5485101984042553</v>
+      </c>
+      <c r="P59">
+        <v>-0.6393638632978723</v>
+      </c>
+      <c r="Q59">
+        <v>-0.4576565335106383</v>
       </c>
     </row>
     <row r="60">
@@ -1135,10 +3641,52 @@
         </is>
       </c>
       <c r="B60">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C60">
-        <v>-0.5777960725490197</v>
+        <v>-0.5755747142857143</v>
+      </c>
+      <c r="D60">
+        <v>-0.679174868367347</v>
+      </c>
+      <c r="E60">
+        <v>-0.4719745602040816</v>
+      </c>
+      <c r="F60">
+        <v>-0.5837677204081633</v>
+      </c>
+      <c r="G60">
+        <v>-0.6581097520408163</v>
+      </c>
+      <c r="H60">
+        <v>-0.5094256887755102</v>
+      </c>
+      <c r="I60">
+        <v>-0.5420848102040816</v>
+      </c>
+      <c r="J60">
+        <v>-0.6374126744897959</v>
+      </c>
+      <c r="K60">
+        <v>-0.4467569459183673</v>
+      </c>
+      <c r="L60">
+        <v>-0.5551960836734694</v>
+      </c>
+      <c r="M60">
+        <v>-0.640583531632653</v>
+      </c>
+      <c r="N60">
+        <v>-0.4698086357142857</v>
+      </c>
+      <c r="O60">
+        <v>-0.5641558321428571</v>
+      </c>
+      <c r="P60">
+        <v>-0.6538202066326531</v>
+      </c>
+      <c r="Q60">
+        <v>-0.4744914576530612</v>
       </c>
     </row>
     <row r="61">
@@ -1148,10 +3696,52 @@
         </is>
       </c>
       <c r="B61">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C61">
-        <v>-0.5706900134615385</v>
+        <v>-0.561852318</v>
+      </c>
+      <c r="D61">
+        <v>-0.670717283</v>
+      </c>
+      <c r="E61">
+        <v>-0.452987353</v>
+      </c>
+      <c r="F61">
+        <v>-0.538499262</v>
+      </c>
+      <c r="G61">
+        <v>-0.617905232</v>
+      </c>
+      <c r="H61">
+        <v>-0.459093292</v>
+      </c>
+      <c r="I61">
+        <v>-0.5609356640000001</v>
+      </c>
+      <c r="J61">
+        <v>-0.660319053</v>
+      </c>
+      <c r="K61">
+        <v>-0.461552275</v>
+      </c>
+      <c r="L61">
+        <v>-0.50982046</v>
+      </c>
+      <c r="M61">
+        <v>-0.594092884</v>
+      </c>
+      <c r="N61">
+        <v>-0.425548036</v>
+      </c>
+      <c r="O61">
+        <v>-0.5427769260000001</v>
+      </c>
+      <c r="P61">
+        <v>-0.635758613</v>
+      </c>
+      <c r="Q61">
+        <v>-0.449795239</v>
       </c>
     </row>
     <row r="62">
@@ -1161,10 +3751,52 @@
         </is>
       </c>
       <c r="B62">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C62">
-        <v>-0.4965249586956522</v>
+        <v>-0.5777960725490197</v>
+      </c>
+      <c r="D62">
+        <v>-0.6869358941176471</v>
+      </c>
+      <c r="E62">
+        <v>-0.4686562509803922</v>
+      </c>
+      <c r="F62">
+        <v>-0.5631336568627451</v>
+      </c>
+      <c r="G62">
+        <v>-0.6432815333333334</v>
+      </c>
+      <c r="H62">
+        <v>-0.4829857803921569</v>
+      </c>
+      <c r="I62">
+        <v>-0.5903217274509804</v>
+      </c>
+      <c r="J62">
+        <v>-0.6863242735294117</v>
+      </c>
+      <c r="K62">
+        <v>-0.494319181372549</v>
+      </c>
+      <c r="L62">
+        <v>-0.5618546411764706</v>
+      </c>
+      <c r="M62">
+        <v>-0.6460375558823529</v>
+      </c>
+      <c r="N62">
+        <v>-0.4776717264705883</v>
+      </c>
+      <c r="O62">
+        <v>-0.5732765245098039</v>
+      </c>
+      <c r="P62">
+        <v>-0.6656448142156863</v>
+      </c>
+      <c r="Q62">
+        <v>-0.4809082348039216</v>
       </c>
     </row>
     <row r="63">
@@ -1174,10 +3806,52 @@
         </is>
       </c>
       <c r="B63">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C63">
-        <v>-0.5610853617021276</v>
+        <v>-0.5706900134615385</v>
+      </c>
+      <c r="D63">
+        <v>-0.6742445586538461</v>
+      </c>
+      <c r="E63">
+        <v>-0.4671354682692308</v>
+      </c>
+      <c r="F63">
+        <v>-0.5563188384615385</v>
+      </c>
+      <c r="G63">
+        <v>-0.6458688451923077</v>
+      </c>
+      <c r="H63">
+        <v>-0.4667688317307692</v>
+      </c>
+      <c r="I63">
+        <v>-0.5603483326923077</v>
+      </c>
+      <c r="J63">
+        <v>-0.6588299298076923</v>
+      </c>
+      <c r="K63">
+        <v>-0.4618667355769231</v>
+      </c>
+      <c r="L63">
+        <v>-0.553992475</v>
+      </c>
+      <c r="M63">
+        <v>-0.6362981048076923</v>
+      </c>
+      <c r="N63">
+        <v>-0.4716868451923077</v>
+      </c>
+      <c r="O63">
+        <v>-0.5603374149038461</v>
+      </c>
+      <c r="P63">
+        <v>-0.6538103596153846</v>
+      </c>
+      <c r="Q63">
+        <v>-0.4668644701923077</v>
       </c>
     </row>
     <row r="64">
@@ -1187,49 +3861,217 @@
         </is>
       </c>
       <c r="B64">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C64">
-        <v>-0.5637785</v>
+        <v>-0.4965249586956522</v>
+      </c>
+      <c r="D64">
+        <v>-0.6035334239130434</v>
+      </c>
+      <c r="E64">
+        <v>-0.3895164934782608</v>
+      </c>
+      <c r="F64">
+        <v>-0.4869389478260869</v>
+      </c>
+      <c r="G64">
+        <v>-0.5715468576086956</v>
+      </c>
+      <c r="H64">
+        <v>-0.4023310380434783</v>
+      </c>
+      <c r="I64">
+        <v>-0.5136055982608696</v>
+      </c>
+      <c r="J64">
+        <v>-0.6110406754347826</v>
+      </c>
+      <c r="K64">
+        <v>-0.4161705210869565</v>
+      </c>
+      <c r="L64">
+        <v>-0.4727744826086957</v>
+      </c>
+      <c r="M64">
+        <v>-0.5517631489130435</v>
+      </c>
+      <c r="N64">
+        <v>-0.3937858163043478</v>
+      </c>
+      <c r="O64">
+        <v>-0.4924609968478261</v>
+      </c>
+      <c r="P64">
+        <v>-0.5844710264673914</v>
+      </c>
+      <c r="Q64">
+        <v>-0.4004509672282609</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Høyere mellominntektsland</t>
+          <t>Lavere mellominntektsland</t>
         </is>
       </c>
       <c r="B65">
-        <v>1996</v>
+        <v>2018</v>
       </c>
       <c r="C65">
-        <v>0.487100572</v>
+        <v>-0.5610853617021276</v>
+      </c>
+      <c r="D65">
+        <v>-0.6703808053191489</v>
+      </c>
+      <c r="E65">
+        <v>-0.4517899180851064</v>
+      </c>
+      <c r="F65">
+        <v>-0.5488006765957447</v>
+      </c>
+      <c r="G65">
+        <v>-0.6308979202127659</v>
+      </c>
+      <c r="H65">
+        <v>-0.4667034329787234</v>
+      </c>
+      <c r="I65">
+        <v>-0.5813617489361702</v>
+      </c>
+      <c r="J65">
+        <v>-0.6780261542553191</v>
+      </c>
+      <c r="K65">
+        <v>-0.4846973436170213</v>
+      </c>
+      <c r="L65">
+        <v>-0.5127708659574468</v>
+      </c>
+      <c r="M65">
+        <v>-0.5916964680851063</v>
+      </c>
+      <c r="N65">
+        <v>-0.4338452638297872</v>
+      </c>
+      <c r="O65">
+        <v>-0.5510046632978723</v>
+      </c>
+      <c r="P65">
+        <v>-0.6427503369680852</v>
+      </c>
+      <c r="Q65">
+        <v>-0.4592589896276595</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Høyere mellominntektsland</t>
+          <t>Lavere mellominntektsland</t>
         </is>
       </c>
       <c r="B66">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="C66">
-        <v>0.3206943</v>
+        <v>-0.5637785</v>
+      </c>
+      <c r="D66">
+        <v>-0.675485771</v>
+      </c>
+      <c r="E66">
+        <v>-0.452071229</v>
+      </c>
+      <c r="F66">
+        <v>-0.5388761520000001</v>
+      </c>
+      <c r="G66">
+        <v>-0.621448713</v>
+      </c>
+      <c r="H66">
+        <v>-0.456303591</v>
+      </c>
+      <c r="I66">
+        <v>-0.570701868</v>
+      </c>
+      <c r="J66">
+        <v>-0.667385435</v>
+      </c>
+      <c r="K66">
+        <v>-0.474018301</v>
+      </c>
+      <c r="L66">
+        <v>-0.5209280040000001</v>
+      </c>
+      <c r="M66">
+        <v>-0.603012128</v>
+      </c>
+      <c r="N66">
+        <v>-0.43884388</v>
+      </c>
+      <c r="O66">
+        <v>-0.548571131</v>
+      </c>
+      <c r="P66">
+        <v>-0.64183301175</v>
+      </c>
+      <c r="Q66">
+        <v>-0.45530925025</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Høyere mellominntektsland</t>
+          <t>Lavere mellominntektsland</t>
         </is>
       </c>
       <c r="B67">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="C67">
-        <v>0.3304062911764706</v>
+        <v>-0.5426138872727273</v>
+      </c>
+      <c r="D67">
+        <v>-0.6638855745454545</v>
+      </c>
+      <c r="E67">
+        <v>-0.4213422</v>
+      </c>
+      <c r="F67">
+        <v>-0.55158442</v>
+      </c>
+      <c r="G67">
+        <v>-0.6357718081818182</v>
+      </c>
+      <c r="H67">
+        <v>-0.4673970318181818</v>
+      </c>
+      <c r="I67">
+        <v>-0.6006916527272728</v>
+      </c>
+      <c r="J67">
+        <v>-0.7077174145454546</v>
+      </c>
+      <c r="K67">
+        <v>-0.4936658909090909</v>
+      </c>
+      <c r="L67">
+        <v>-0.5150008581818182</v>
+      </c>
+      <c r="M67">
+        <v>-0.5983697263636364</v>
+      </c>
+      <c r="N67">
+        <v>-0.43163199</v>
+      </c>
+      <c r="O67">
+        <v>-0.5524727045454545</v>
+      </c>
+      <c r="P67">
+        <v>-0.6514361309090909</v>
+      </c>
+      <c r="Q67">
+        <v>-0.4535092781818182</v>
       </c>
     </row>
     <row r="68">
@@ -1239,10 +4081,52 @@
         </is>
       </c>
       <c r="B68">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="C68">
-        <v>0.2691828666666667</v>
+        <v>0.487100572</v>
+      </c>
+      <c r="D68">
+        <v>0.39290496</v>
+      </c>
+      <c r="E68">
+        <v>0.5812961839999999</v>
+      </c>
+      <c r="F68">
+        <v>0.382294088</v>
+      </c>
+      <c r="G68">
+        <v>0.265936524</v>
+      </c>
+      <c r="H68">
+        <v>0.498651652</v>
+      </c>
+      <c r="I68">
+        <v>0.517893388</v>
+      </c>
+      <c r="J68">
+        <v>0.358166608</v>
+      </c>
+      <c r="K68">
+        <v>0.677620168</v>
+      </c>
+      <c r="L68">
+        <v>0.371007916</v>
+      </c>
+      <c r="M68">
+        <v>0.232332642</v>
+      </c>
+      <c r="N68">
+        <v>0.50968319</v>
+      </c>
+      <c r="O68">
+        <v>0.439573991</v>
+      </c>
+      <c r="P68">
+        <v>0.3123351835</v>
+      </c>
+      <c r="Q68">
+        <v>0.5668127985</v>
       </c>
     </row>
     <row r="69">
@@ -1252,10 +4136,52 @@
         </is>
       </c>
       <c r="B69">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="C69">
-        <v>0.3323706303030303</v>
+        <v>0.3206943</v>
+      </c>
+      <c r="D69">
+        <v>0.2000414421875</v>
+      </c>
+      <c r="E69">
+        <v>0.4413471578125</v>
+      </c>
+      <c r="F69">
+        <v>0.34591948125</v>
+      </c>
+      <c r="G69">
+        <v>0.2232691734375</v>
+      </c>
+      <c r="H69">
+        <v>0.4685697890625</v>
+      </c>
+      <c r="I69">
+        <v>0.442278328125</v>
+      </c>
+      <c r="J69">
+        <v>0.2832597703125</v>
+      </c>
+      <c r="K69">
+        <v>0.6012968859375</v>
+      </c>
+      <c r="L69">
+        <v>0.264441975</v>
+      </c>
+      <c r="M69">
+        <v>0.1390697515625</v>
+      </c>
+      <c r="N69">
+        <v>0.3898141984375</v>
+      </c>
+      <c r="O69">
+        <v>0.34333352109375</v>
+      </c>
+      <c r="P69">
+        <v>0.211410034375</v>
+      </c>
+      <c r="Q69">
+        <v>0.4752570078125</v>
       </c>
     </row>
     <row r="70">
@@ -1265,10 +4191,52 @@
         </is>
       </c>
       <c r="B70">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C70">
-        <v>0.2337035972972973</v>
+        <v>0.3304062911764706</v>
+      </c>
+      <c r="D70">
+        <v>0.2125943911764706</v>
+      </c>
+      <c r="E70">
+        <v>0.4482181911764706</v>
+      </c>
+      <c r="F70">
+        <v>0.355367055882353</v>
+      </c>
+      <c r="G70">
+        <v>0.2532096117647059</v>
+      </c>
+      <c r="H70">
+        <v>0.4575245</v>
+      </c>
+      <c r="I70">
+        <v>0.3850693029411765</v>
+      </c>
+      <c r="J70">
+        <v>0.2455076955882353</v>
+      </c>
+      <c r="K70">
+        <v>0.5246309102941177</v>
+      </c>
+      <c r="L70">
+        <v>0.2879835088235294</v>
+      </c>
+      <c r="M70">
+        <v>0.1666008573529412</v>
+      </c>
+      <c r="N70">
+        <v>0.4093661602941177</v>
+      </c>
+      <c r="O70">
+        <v>0.3397065397058823</v>
+      </c>
+      <c r="P70">
+        <v>0.2194781389705882</v>
+      </c>
+      <c r="Q70">
+        <v>0.4599349404411764</v>
       </c>
     </row>
     <row r="71">
@@ -1278,10 +4246,52 @@
         </is>
       </c>
       <c r="B71">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C71">
-        <v>0.3103281567567567</v>
+        <v>0.2691828666666667</v>
+      </c>
+      <c r="D71">
+        <v>0.1634623166666667</v>
+      </c>
+      <c r="E71">
+        <v>0.3749034166666667</v>
+      </c>
+      <c r="F71">
+        <v>0.2971360633333333</v>
+      </c>
+      <c r="G71">
+        <v>0.1918451516666667</v>
+      </c>
+      <c r="H71">
+        <v>0.402426975</v>
+      </c>
+      <c r="I71">
+        <v>0.3933693166666667</v>
+      </c>
+      <c r="J71">
+        <v>0.269345405</v>
+      </c>
+      <c r="K71">
+        <v>0.5173932283333333</v>
+      </c>
+      <c r="L71">
+        <v>0.2050650933333333</v>
+      </c>
+      <c r="M71">
+        <v>0.09631983833333334</v>
+      </c>
+      <c r="N71">
+        <v>0.3138103483333333</v>
+      </c>
+      <c r="O71">
+        <v>0.291188335</v>
+      </c>
+      <c r="P71">
+        <v>0.1802431779166667</v>
+      </c>
+      <c r="Q71">
+        <v>0.4021334920833333</v>
       </c>
     </row>
     <row r="72">
@@ -1291,10 +4301,52 @@
         </is>
       </c>
       <c r="B72">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C72">
-        <v>0.1362568131578947</v>
+        <v>0.3323706303030303</v>
+      </c>
+      <c r="D72">
+        <v>0.2140725560606061</v>
+      </c>
+      <c r="E72">
+        <v>0.4506687045454546</v>
+      </c>
+      <c r="F72">
+        <v>0.3689069121212121</v>
+      </c>
+      <c r="G72">
+        <v>0.257818156060606</v>
+      </c>
+      <c r="H72">
+        <v>0.4799956681818182</v>
+      </c>
+      <c r="I72">
+        <v>0.4535242212121212</v>
+      </c>
+      <c r="J72">
+        <v>0.3403398090909091</v>
+      </c>
+      <c r="K72">
+        <v>0.5667086333333333</v>
+      </c>
+      <c r="L72">
+        <v>0.3021481</v>
+      </c>
+      <c r="M72">
+        <v>0.1868478893939394</v>
+      </c>
+      <c r="N72">
+        <v>0.4174483106060606</v>
+      </c>
+      <c r="O72">
+        <v>0.3642374659090909</v>
+      </c>
+      <c r="P72">
+        <v>0.2497696026515152</v>
+      </c>
+      <c r="Q72">
+        <v>0.4787053291666666</v>
       </c>
     </row>
     <row r="73">
@@ -1304,10 +4356,52 @@
         </is>
       </c>
       <c r="B73">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C73">
-        <v>0.08326676153846153</v>
+        <v>0.2337035972972973</v>
+      </c>
+      <c r="D73">
+        <v>0.1228286959459459</v>
+      </c>
+      <c r="E73">
+        <v>0.3445784986486487</v>
+      </c>
+      <c r="F73">
+        <v>0.2654990864864865</v>
+      </c>
+      <c r="G73">
+        <v>0.1706920243243243</v>
+      </c>
+      <c r="H73">
+        <v>0.3603061486486487</v>
+      </c>
+      <c r="I73">
+        <v>0.3168365054054054</v>
+      </c>
+      <c r="J73">
+        <v>0.2142160527027027</v>
+      </c>
+      <c r="K73">
+        <v>0.4194569581081081</v>
+      </c>
+      <c r="L73">
+        <v>0.188258172972973</v>
+      </c>
+      <c r="M73">
+        <v>0.08875592027027025</v>
+      </c>
+      <c r="N73">
+        <v>0.2877604256756757</v>
+      </c>
+      <c r="O73">
+        <v>0.2510743405405406</v>
+      </c>
+      <c r="P73">
+        <v>0.1491231733108108</v>
+      </c>
+      <c r="Q73">
+        <v>0.3530255077702703</v>
       </c>
     </row>
     <row r="74">
@@ -1317,10 +4411,52 @@
         </is>
       </c>
       <c r="B74">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C74">
-        <v>0.01255848222222223</v>
+        <v>0.3103281567567567</v>
+      </c>
+      <c r="D74">
+        <v>0.2090959797297297</v>
+      </c>
+      <c r="E74">
+        <v>0.4115603337837838</v>
+      </c>
+      <c r="F74">
+        <v>0.2499811432432433</v>
+      </c>
+      <c r="G74">
+        <v>0.1568576770270271</v>
+      </c>
+      <c r="H74">
+        <v>0.3431046094594595</v>
+      </c>
+      <c r="I74">
+        <v>0.4352267891891892</v>
+      </c>
+      <c r="J74">
+        <v>0.3503505581081081</v>
+      </c>
+      <c r="K74">
+        <v>0.5201030202702702</v>
+      </c>
+      <c r="L74">
+        <v>0.2464625162162162</v>
+      </c>
+      <c r="M74">
+        <v>0.1534766108108108</v>
+      </c>
+      <c r="N74">
+        <v>0.3394484216216216</v>
+      </c>
+      <c r="O74">
+        <v>0.3104996513513514</v>
+      </c>
+      <c r="P74">
+        <v>0.2174452064189189</v>
+      </c>
+      <c r="Q74">
+        <v>0.4035540962837838</v>
       </c>
     </row>
     <row r="75">
@@ -1330,10 +4466,52 @@
         </is>
       </c>
       <c r="B75">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C75">
-        <v>-0.02009568723404255</v>
+        <v>0.1362568131578947</v>
+      </c>
+      <c r="D75">
+        <v>0.02323689342105264</v>
+      </c>
+      <c r="E75">
+        <v>0.2492767328947368</v>
+      </c>
+      <c r="F75">
+        <v>0.07674667894736842</v>
+      </c>
+      <c r="G75">
+        <v>-0.0143392052631579</v>
+      </c>
+      <c r="H75">
+        <v>0.1678325631578947</v>
+      </c>
+      <c r="I75">
+        <v>0.2529017605263158</v>
+      </c>
+      <c r="J75">
+        <v>0.1513429421052632</v>
+      </c>
+      <c r="K75">
+        <v>0.3544605789473684</v>
+      </c>
+      <c r="L75">
+        <v>0.05250655526315791</v>
+      </c>
+      <c r="M75">
+        <v>-0.04073590526315788</v>
+      </c>
+      <c r="N75">
+        <v>0.1457490157894737</v>
+      </c>
+      <c r="O75">
+        <v>0.1296029519736842</v>
+      </c>
+      <c r="P75">
+        <v>0.02987618125000001</v>
+      </c>
+      <c r="Q75">
+        <v>0.2293297226973684</v>
       </c>
     </row>
     <row r="76">
@@ -1343,10 +4521,52 @@
         </is>
       </c>
       <c r="B76">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C76">
-        <v>0.01241223962264151</v>
+        <v>0.08326676153846153</v>
+      </c>
+      <c r="D76">
+        <v>-0.03697288717948719</v>
+      </c>
+      <c r="E76">
+        <v>0.2035064102564103</v>
+      </c>
+      <c r="F76">
+        <v>-0.02038712307692308</v>
+      </c>
+      <c r="G76">
+        <v>-0.1113212525641026</v>
+      </c>
+      <c r="H76">
+        <v>0.07054700641025641</v>
+      </c>
+      <c r="I76">
+        <v>0.08589922307692308</v>
+      </c>
+      <c r="J76">
+        <v>-0.01994918717948718</v>
+      </c>
+      <c r="K76">
+        <v>0.1917476333333333</v>
+      </c>
+      <c r="L76">
+        <v>0.02915717692307692</v>
+      </c>
+      <c r="M76">
+        <v>-0.06634585897435898</v>
+      </c>
+      <c r="N76">
+        <v>0.1246602128205128</v>
+      </c>
+      <c r="O76">
+        <v>0.04448400961538462</v>
+      </c>
+      <c r="P76">
+        <v>-0.05864729647435898</v>
+      </c>
+      <c r="Q76">
+        <v>0.1476153157051282</v>
       </c>
     </row>
     <row r="77">
@@ -1356,10 +4576,52 @@
         </is>
       </c>
       <c r="B77">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C77">
-        <v>-0.06164894074074074</v>
+        <v>0.01255848222222223</v>
+      </c>
+      <c r="D77">
+        <v>-0.1093282888888889</v>
+      </c>
+      <c r="E77">
+        <v>0.1344452533333334</v>
+      </c>
+      <c r="F77">
+        <v>-0.04421147777777779</v>
+      </c>
+      <c r="G77">
+        <v>-0.1308097566666667</v>
+      </c>
+      <c r="H77">
+        <v>0.04238680111111112</v>
+      </c>
+      <c r="I77">
+        <v>0.05921655999999999</v>
+      </c>
+      <c r="J77">
+        <v>-0.04539126444444445</v>
+      </c>
+      <c r="K77">
+        <v>0.1638243844444444</v>
+      </c>
+      <c r="L77">
+        <v>0.004867835555555563</v>
+      </c>
+      <c r="M77">
+        <v>-0.09303585</v>
+      </c>
+      <c r="N77">
+        <v>0.1027715211111111</v>
+      </c>
+      <c r="O77">
+        <v>0.008107849999999996</v>
+      </c>
+      <c r="P77">
+        <v>-0.09464129</v>
+      </c>
+      <c r="Q77">
+        <v>0.11085699</v>
       </c>
     </row>
     <row r="78">
@@ -1369,10 +4631,52 @@
         </is>
       </c>
       <c r="B78">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C78">
-        <v>-0.1660619145454546</v>
+        <v>-0.02009568723404255</v>
+      </c>
+      <c r="D78">
+        <v>-0.1405115734042553</v>
+      </c>
+      <c r="E78">
+        <v>0.1003201989361702</v>
+      </c>
+      <c r="F78">
+        <v>-0.0740826744680851</v>
+      </c>
+      <c r="G78">
+        <v>-0.1607135808510638</v>
+      </c>
+      <c r="H78">
+        <v>0.01254823191489362</v>
+      </c>
+      <c r="I78">
+        <v>-0.03056049787234043</v>
+      </c>
+      <c r="J78">
+        <v>-0.1330292361702128</v>
+      </c>
+      <c r="K78">
+        <v>0.07190824042553191</v>
+      </c>
+      <c r="L78">
+        <v>-0.06349235957446808</v>
+      </c>
+      <c r="M78">
+        <v>-0.16575055</v>
+      </c>
+      <c r="N78">
+        <v>0.03876583085106383</v>
+      </c>
+      <c r="O78">
+        <v>-0.04705780478723404</v>
+      </c>
+      <c r="P78">
+        <v>-0.150001235106383</v>
+      </c>
+      <c r="Q78">
+        <v>0.05588562553191491</v>
       </c>
     </row>
     <row r="79">
@@ -1382,10 +4686,52 @@
         </is>
       </c>
       <c r="B79">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C79">
-        <v>-0.1636266581818182</v>
+        <v>0.01241223962264151</v>
+      </c>
+      <c r="D79">
+        <v>-0.1059933066037736</v>
+      </c>
+      <c r="E79">
+        <v>0.1308177858490566</v>
+      </c>
+      <c r="F79">
+        <v>-0.06971531132075472</v>
+      </c>
+      <c r="G79">
+        <v>-0.1534365924528302</v>
+      </c>
+      <c r="H79">
+        <v>0.01400596981132076</v>
+      </c>
+      <c r="I79">
+        <v>-0.01362029999999999</v>
+      </c>
+      <c r="J79">
+        <v>-0.1143634122641509</v>
+      </c>
+      <c r="K79">
+        <v>0.08712281226415095</v>
+      </c>
+      <c r="L79">
+        <v>-0.08841117924528301</v>
+      </c>
+      <c r="M79">
+        <v>-0.1864351905660378</v>
+      </c>
+      <c r="N79">
+        <v>0.009612832075471702</v>
+      </c>
+      <c r="O79">
+        <v>-0.03983363773584905</v>
+      </c>
+      <c r="P79">
+        <v>-0.1400571254716981</v>
+      </c>
+      <c r="Q79">
+        <v>0.06038985</v>
       </c>
     </row>
     <row r="80">
@@ -1395,10 +4741,52 @@
         </is>
       </c>
       <c r="B80">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C80">
-        <v>-0.1790141867924528</v>
+        <v>-0.06164894074074074</v>
+      </c>
+      <c r="D80">
+        <v>-0.1802695564814815</v>
+      </c>
+      <c r="E80">
+        <v>0.056971675</v>
+      </c>
+      <c r="F80">
+        <v>-0.1197478851851852</v>
+      </c>
+      <c r="G80">
+        <v>-0.2003864898148148</v>
+      </c>
+      <c r="H80">
+        <v>-0.03910928055555558</v>
+      </c>
+      <c r="I80">
+        <v>-0.103596962962963</v>
+      </c>
+      <c r="J80">
+        <v>-0.2017339592592593</v>
+      </c>
+      <c r="K80">
+        <v>-0.005459966666666664</v>
+      </c>
+      <c r="L80">
+        <v>-0.1481122481481482</v>
+      </c>
+      <c r="M80">
+        <v>-0.2445330537037037</v>
+      </c>
+      <c r="N80">
+        <v>-0.05169144259259259</v>
+      </c>
+      <c r="O80">
+        <v>-0.1082765092592593</v>
+      </c>
+      <c r="P80">
+        <v>-0.2067307648148148</v>
+      </c>
+      <c r="Q80">
+        <v>-0.009822253703703711</v>
       </c>
     </row>
     <row r="81">
@@ -1408,10 +4796,52 @@
         </is>
       </c>
       <c r="B81">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C81">
-        <v>-0.2077228821428571</v>
+        <v>-0.1660619145454546</v>
+      </c>
+      <c r="D81">
+        <v>-0.2844382009090909</v>
+      </c>
+      <c r="E81">
+        <v>-0.04768562818181818</v>
+      </c>
+      <c r="F81">
+        <v>-0.2331685818181818</v>
+      </c>
+      <c r="G81">
+        <v>-0.31529756</v>
+      </c>
+      <c r="H81">
+        <v>-0.1510396036363637</v>
+      </c>
+      <c r="I81">
+        <v>-0.2274392036363636</v>
+      </c>
+      <c r="J81">
+        <v>-0.3312786881818182</v>
+      </c>
+      <c r="K81">
+        <v>-0.1235997190909091</v>
+      </c>
+      <c r="L81">
+        <v>-0.2626515436363636</v>
+      </c>
+      <c r="M81">
+        <v>-0.3584093863636364</v>
+      </c>
+      <c r="N81">
+        <v>-0.1668937009090909</v>
+      </c>
+      <c r="O81">
+        <v>-0.2223303109090909</v>
+      </c>
+      <c r="P81">
+        <v>-0.3223559588636364</v>
+      </c>
+      <c r="Q81">
+        <v>-0.1223046629545455</v>
       </c>
     </row>
     <row r="82">
@@ -1421,10 +4851,52 @@
         </is>
       </c>
       <c r="B82">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C82">
-        <v>-0.1893088339285714</v>
+        <v>-0.1636266581818182</v>
+      </c>
+      <c r="D82">
+        <v>-0.2789438590909091</v>
+      </c>
+      <c r="E82">
+        <v>-0.04830945727272727</v>
+      </c>
+      <c r="F82">
+        <v>-0.2293861290909091</v>
+      </c>
+      <c r="G82">
+        <v>-0.3115297663636364</v>
+      </c>
+      <c r="H82">
+        <v>-0.1472424918181818</v>
+      </c>
+      <c r="I82">
+        <v>-0.2409643218181818</v>
+      </c>
+      <c r="J82">
+        <v>-0.3454763927272727</v>
+      </c>
+      <c r="K82">
+        <v>-0.1364522509090909</v>
+      </c>
+      <c r="L82">
+        <v>-0.2623364218181818</v>
+      </c>
+      <c r="M82">
+        <v>-0.3573321545454545</v>
+      </c>
+      <c r="N82">
+        <v>-0.1673406890909091</v>
+      </c>
+      <c r="O82">
+        <v>-0.2240783827272727</v>
+      </c>
+      <c r="P82">
+        <v>-0.3233205431818182</v>
+      </c>
+      <c r="Q82">
+        <v>-0.1248362222727273</v>
       </c>
     </row>
     <row r="83">
@@ -1434,10 +4906,52 @@
         </is>
       </c>
       <c r="B83">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C83">
-        <v>-0.2141938607142857</v>
+        <v>-0.1790141867924528</v>
+      </c>
+      <c r="D83">
+        <v>-0.3037408056603774</v>
+      </c>
+      <c r="E83">
+        <v>-0.0542875679245283</v>
+      </c>
+      <c r="F83">
+        <v>-0.2232469528301887</v>
+      </c>
+      <c r="G83">
+        <v>-0.3145090877358491</v>
+      </c>
+      <c r="H83">
+        <v>-0.1319848179245283</v>
+      </c>
+      <c r="I83">
+        <v>-0.2068924320754717</v>
+      </c>
+      <c r="J83">
+        <v>-0.3189877047169811</v>
+      </c>
+      <c r="K83">
+        <v>-0.09479715943396226</v>
+      </c>
+      <c r="L83">
+        <v>-0.2802774188679245</v>
+      </c>
+      <c r="M83">
+        <v>-0.3777327603773585</v>
+      </c>
+      <c r="N83">
+        <v>-0.1828220773584906</v>
+      </c>
+      <c r="O83">
+        <v>-0.2223577476415094</v>
+      </c>
+      <c r="P83">
+        <v>-0.3287425896226415</v>
+      </c>
+      <c r="Q83">
+        <v>-0.1159729056603774</v>
       </c>
     </row>
     <row r="84">
@@ -1447,10 +4961,52 @@
         </is>
       </c>
       <c r="B84">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C84">
-        <v>-0.1915097949152542</v>
+        <v>-0.2077228821428571</v>
+      </c>
+      <c r="D84">
+        <v>-0.3296506196428571</v>
+      </c>
+      <c r="E84">
+        <v>-0.08579514464285715</v>
+      </c>
+      <c r="F84">
+        <v>-0.3018307107142857</v>
+      </c>
+      <c r="G84">
+        <v>-0.3899076544642857</v>
+      </c>
+      <c r="H84">
+        <v>-0.2137537669642857</v>
+      </c>
+      <c r="I84">
+        <v>-0.2634334928571429</v>
+      </c>
+      <c r="J84">
+        <v>-0.3679929758928571</v>
+      </c>
+      <c r="K84">
+        <v>-0.1588740098214286</v>
+      </c>
+      <c r="L84">
+        <v>-0.3239339910714286</v>
+      </c>
+      <c r="M84">
+        <v>-0.4137827821428571</v>
+      </c>
+      <c r="N84">
+        <v>-0.2340852</v>
+      </c>
+      <c r="O84">
+        <v>-0.2742302691964286</v>
+      </c>
+      <c r="P84">
+        <v>-0.3753335080357143</v>
+      </c>
+      <c r="Q84">
+        <v>-0.1731270303571429</v>
       </c>
     </row>
     <row r="85">
@@ -1460,10 +5016,272 @@
         </is>
       </c>
       <c r="B85">
+        <v>2016</v>
+      </c>
+      <c r="C85">
+        <v>-0.1893088339285714</v>
+      </c>
+      <c r="D85">
+        <v>-0.3100028098214286</v>
+      </c>
+      <c r="E85">
+        <v>-0.06861485803571428</v>
+      </c>
+      <c r="F85">
+        <v>-0.2597000803571429</v>
+      </c>
+      <c r="G85">
+        <v>-0.3626306339285714</v>
+      </c>
+      <c r="H85">
+        <v>-0.1567695267857143</v>
+      </c>
+      <c r="I85">
+        <v>-0.2587050267857143</v>
+      </c>
+      <c r="J85">
+        <v>-0.3717927660714286</v>
+      </c>
+      <c r="K85">
+        <v>-0.1456172875</v>
+      </c>
+      <c r="L85">
+        <v>-0.2967685089285714</v>
+      </c>
+      <c r="M85">
+        <v>-0.3915583428571429</v>
+      </c>
+      <c r="N85">
+        <v>-0.201978675</v>
+      </c>
+      <c r="O85">
+        <v>-0.2511206125</v>
+      </c>
+      <c r="P85">
+        <v>-0.3589961381696429</v>
+      </c>
+      <c r="Q85">
+        <v>-0.1432450868303571</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Høyere mellominntektsland</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>2017</v>
+      </c>
+      <c r="C86">
+        <v>-0.2141938607142857</v>
+      </c>
+      <c r="D86">
+        <v>-0.3389448258928571</v>
+      </c>
+      <c r="E86">
+        <v>-0.08944289553571427</v>
+      </c>
+      <c r="F86">
+        <v>-0.2873118482142857</v>
+      </c>
+      <c r="G86">
+        <v>-0.3860597982142857</v>
+      </c>
+      <c r="H86">
+        <v>-0.1885638982142857</v>
+      </c>
+      <c r="I86">
+        <v>-0.2799696178571429</v>
+      </c>
+      <c r="J86">
+        <v>-0.3905120714285714</v>
+      </c>
+      <c r="K86">
+        <v>-0.1694271642857143</v>
+      </c>
+      <c r="L86">
+        <v>-0.3059714607142857</v>
+      </c>
+      <c r="M86">
+        <v>-0.3966189375</v>
+      </c>
+      <c r="N86">
+        <v>-0.2153239839285714</v>
+      </c>
+      <c r="O86">
+        <v>-0.271861696875</v>
+      </c>
+      <c r="P86">
+        <v>-0.3780339082589286</v>
+      </c>
+      <c r="Q86">
+        <v>-0.1656894854910714</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Høyere mellominntektsland</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>2018</v>
+      </c>
+      <c r="C87">
+        <v>-0.1915097949152542</v>
+      </c>
+      <c r="D87">
+        <v>-0.3184091576271186</v>
+      </c>
+      <c r="E87">
+        <v>-0.06461043220338983</v>
+      </c>
+      <c r="F87">
+        <v>-0.2651201779661017</v>
+      </c>
+      <c r="G87">
+        <v>-0.3606967906779661</v>
+      </c>
+      <c r="H87">
+        <v>-0.1695435652542373</v>
+      </c>
+      <c r="I87">
+        <v>-0.2611723101694915</v>
+      </c>
+      <c r="J87">
+        <v>-0.3733750720338983</v>
+      </c>
+      <c r="K87">
+        <v>-0.1489695483050847</v>
+      </c>
+      <c r="L87">
+        <v>-0.276986086440678</v>
+      </c>
+      <c r="M87">
+        <v>-0.3664917838983051</v>
+      </c>
+      <c r="N87">
+        <v>-0.1874803889830509</v>
+      </c>
+      <c r="O87">
+        <v>-0.2486970923728814</v>
+      </c>
+      <c r="P87">
+        <v>-0.354743201059322</v>
+      </c>
+      <c r="Q87">
+        <v>-0.1426509836864407</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Høyere mellominntektsland</t>
+        </is>
+      </c>
+      <c r="B88">
         <v>2019</v>
       </c>
-      <c r="C85">
+      <c r="C88">
         <v>-0.1886045636363636</v>
+      </c>
+      <c r="D88">
+        <v>-0.3119139072727273</v>
+      </c>
+      <c r="E88">
+        <v>-0.06529522</v>
+      </c>
+      <c r="F88">
+        <v>-0.2726466890909091</v>
+      </c>
+      <c r="G88">
+        <v>-0.3633886172727273</v>
+      </c>
+      <c r="H88">
+        <v>-0.1819047609090909</v>
+      </c>
+      <c r="I88">
+        <v>-0.2896841763636364</v>
+      </c>
+      <c r="J88">
+        <v>-0.3946082481818182</v>
+      </c>
+      <c r="K88">
+        <v>-0.1847601045454546</v>
+      </c>
+      <c r="L88">
+        <v>-0.2585928745454545</v>
+      </c>
+      <c r="M88">
+        <v>-0.3464174218181818</v>
+      </c>
+      <c r="N88">
+        <v>-0.1707683272727273</v>
+      </c>
+      <c r="O88">
+        <v>-0.2523820759090909</v>
+      </c>
+      <c r="P88">
+        <v>-0.3540820486363637</v>
+      </c>
+      <c r="Q88">
+        <v>-0.1506821031818182</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Høyere mellominntektsland</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>2020</v>
+      </c>
+      <c r="C89">
+        <v>-0.193598712962963</v>
+      </c>
+      <c r="D89">
+        <v>-0.3243060740740741</v>
+      </c>
+      <c r="E89">
+        <v>-0.06289135185185185</v>
+      </c>
+      <c r="F89">
+        <v>-0.1928183814814815</v>
+      </c>
+      <c r="G89">
+        <v>-0.2837173851851852</v>
+      </c>
+      <c r="H89">
+        <v>-0.1019193777777778</v>
+      </c>
+      <c r="I89">
+        <v>-0.1581176962962963</v>
+      </c>
+      <c r="J89">
+        <v>-0.2708998222222222</v>
+      </c>
+      <c r="K89">
+        <v>-0.04533557037037037</v>
+      </c>
+      <c r="L89">
+        <v>-0.252795512962963</v>
+      </c>
+      <c r="M89">
+        <v>-0.3395143148148148</v>
+      </c>
+      <c r="N89">
+        <v>-0.1660767111111111</v>
+      </c>
+      <c r="O89">
+        <v>-0.1993325759259259</v>
+      </c>
+      <c r="P89">
+        <v>-0.3046093990740741</v>
+      </c>
+      <c r="Q89">
+        <v>-0.09405575277777778</v>
       </c>
     </row>
   </sheetData>
